--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1820" windowWidth="28720" windowHeight="14540" tabRatio="968" firstSheet="2" activeTab="15"/>
+    <workbookView xWindow="4820" yWindow="4020" windowWidth="28720" windowHeight="14540" tabRatio="968" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="7">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -128,6 +128,9 @@
   <si>
     <t>INT_coin</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buildTime</t>
   </si>
 </sst>
 </file>
@@ -271,7 +274,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -336,6 +339,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -349,7 +388,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="96">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -382,6 +421,24 @@
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -407,6 +464,24 @@
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -856,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -867,7 +942,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,8 +961,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -906,8 +984,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -926,8 +1007,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -946,8 +1030,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -966,8 +1053,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -986,8 +1076,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1006,8 +1099,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1026,8 +1122,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1046,8 +1145,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1066,8 +1168,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1086,8 +1191,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1106,8 +1214,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1126,8 +1237,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1146,8 +1260,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1166,8 +1283,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1185,6 +1305,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -1201,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1212,7 +1335,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1231,8 +1354,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1251,8 +1377,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1271,8 +1400,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1291,8 +1423,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1311,8 +1446,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1331,8 +1469,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1351,8 +1492,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1371,8 +1515,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1391,8 +1538,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1411,8 +1561,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1431,8 +1584,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1451,8 +1607,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1471,8 +1630,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1491,8 +1653,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1511,8 +1676,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1530,6 +1698,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1557,7 +1728,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1576,8 +1747,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1596,8 +1770,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1616,8 +1793,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1636,8 +1816,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1656,8 +1839,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1676,8 +1862,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1696,8 +1885,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1716,8 +1908,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1736,8 +1931,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1756,8 +1954,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1776,8 +1977,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1796,8 +2000,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1816,8 +2023,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1836,8 +2046,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1856,8 +2069,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1875,6 +2091,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -1891,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1902,7 +2121,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1921,8 +2140,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1941,8 +2163,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1961,8 +2186,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1981,8 +2209,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2001,8 +2232,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2021,8 +2255,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2041,8 +2278,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2061,8 +2301,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2081,8 +2324,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2101,8 +2347,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2121,8 +2370,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2141,8 +2393,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2161,8 +2416,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2181,8 +2439,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2201,8 +2462,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2220,6 +2484,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -2236,10 +2503,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2247,7 +2514,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2266,8 +2533,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2286,8 +2556,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2306,8 +2579,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2326,8 +2602,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2346,8 +2625,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2366,8 +2648,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2386,8 +2671,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2406,8 +2694,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2426,8 +2717,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2446,8 +2740,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2466,8 +2763,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2486,8 +2786,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2506,8 +2809,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2526,8 +2832,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2546,8 +2855,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2565,6 +2877,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -2581,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2592,7 +2907,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2611,8 +2926,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2631,8 +2949,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2651,8 +2972,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2671,8 +2995,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2691,8 +3018,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2711,8 +3041,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2731,8 +3064,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2751,8 +3087,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2771,8 +3110,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2791,8 +3133,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2811,8 +3156,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2831,8 +3179,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2851,8 +3202,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2871,8 +3225,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2891,8 +3248,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2910,6 +3270,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -2926,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2937,7 +3300,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2956,8 +3319,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2976,8 +3342,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2996,8 +3365,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3016,8 +3388,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3036,8 +3411,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3056,8 +3434,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3076,8 +3457,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3096,8 +3480,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3116,8 +3503,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3136,8 +3526,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3156,8 +3549,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3176,8 +3572,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3196,8 +3595,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3216,8 +3618,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3236,8 +3641,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3255,6 +3663,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -3271,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3282,7 +3693,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3301,8 +3712,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3321,8 +3735,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3341,8 +3758,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3361,8 +3781,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3381,8 +3804,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3401,8 +3827,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3421,8 +3850,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3441,8 +3873,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3461,8 +3896,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3481,8 +3919,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3501,8 +3942,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3521,8 +3965,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3541,8 +3988,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3561,8 +4011,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3581,8 +4034,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3600,6 +4056,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -3616,10 +4075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3627,7 +4086,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3646,8 +4105,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3666,8 +4128,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3686,8 +4151,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3706,8 +4174,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3726,8 +4197,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3746,8 +4220,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3766,8 +4243,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3786,8 +4266,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3806,8 +4289,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3826,8 +4312,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3846,8 +4335,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3866,8 +4358,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3886,8 +4381,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3906,8 +4404,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3926,8 +4427,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3945,6 +4449,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -3961,10 +4468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3972,7 +4479,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3991,8 +4498,12 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4011,8 +4522,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4031,8 +4545,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4051,8 +4568,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4071,8 +4591,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4091,8 +4614,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4111,8 +4637,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4131,8 +4660,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4151,8 +4683,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4171,8 +4706,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4191,8 +4729,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4211,8 +4752,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4231,8 +4775,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4251,8 +4798,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4271,8 +4821,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4290,6 +4843,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4862,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4317,7 +4873,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4336,8 +4892,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4356,8 +4915,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4376,8 +4938,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4396,8 +4961,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4416,8 +4984,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4436,8 +5007,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4456,8 +5030,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4476,8 +5053,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4496,8 +5076,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4516,8 +5099,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4536,8 +5122,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4556,8 +5145,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4576,8 +5168,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4596,8 +5191,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4616,8 +5214,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4635,6 +5236,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -4651,10 +5255,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4662,7 +5266,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4681,8 +5285,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4701,8 +5308,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4721,8 +5331,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4741,8 +5354,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4761,8 +5377,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4781,8 +5400,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4801,8 +5423,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4821,8 +5446,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4841,8 +5469,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4861,8 +5492,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4881,8 +5515,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4901,8 +5538,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4921,8 +5561,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4941,8 +5584,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4961,8 +5607,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4980,6 +5629,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -4996,10 +5648,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5007,7 +5659,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5026,8 +5678,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5046,8 +5701,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5066,8 +5724,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5086,8 +5747,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5106,8 +5770,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5126,8 +5793,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5146,8 +5816,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5166,8 +5839,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5186,8 +5862,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5206,8 +5885,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5226,8 +5908,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5246,8 +5931,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5266,8 +5954,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5286,8 +5977,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5306,8 +6000,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5325,6 +6022,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -5341,10 +6041,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5352,7 +6052,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5371,8 +6071,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5391,8 +6094,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5411,8 +6117,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5431,8 +6140,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5451,8 +6163,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5471,8 +6186,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5491,8 +6209,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5511,8 +6232,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5531,8 +6255,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5551,8 +6278,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5571,8 +6301,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5591,8 +6324,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5611,8 +6347,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5631,8 +6370,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5651,8 +6393,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5670,6 +6415,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -5686,10 +6434,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5697,7 +6445,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5716,8 +6464,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5736,8 +6487,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5756,8 +6510,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5776,8 +6533,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5796,8 +6556,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5816,8 +6579,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5836,8 +6602,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5856,8 +6625,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5876,8 +6648,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5896,8 +6671,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5916,8 +6694,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5936,8 +6717,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5956,8 +6740,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5976,8 +6763,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5996,8 +6786,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6015,6 +6808,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -6031,10 +6827,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6042,7 +6838,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6061,8 +6857,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6081,8 +6880,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6101,8 +6903,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6121,8 +6926,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6141,8 +6949,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6161,8 +6972,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6181,8 +6995,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6201,8 +7018,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6221,8 +7041,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6241,8 +7064,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6261,8 +7087,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6281,8 +7110,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6301,8 +7133,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6321,8 +7156,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6341,8 +7179,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6360,6 +7201,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="4020" windowWidth="28720" windowHeight="14540" tabRatio="968" firstSheet="2" activeTab="15"/>
+    <workbookView xWindow="4820" yWindow="4020" windowWidth="28720" windowHeight="14540" tabRatio="968"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -232,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,6 +268,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -376,7 +389,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +398,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -985,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -1007,8 +1023,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -1030,8 +1046,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -1053,8 +1069,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -1076,8 +1092,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -1099,8 +1115,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -1122,8 +1138,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -1145,8 +1161,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -1168,8 +1184,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -1191,8 +1207,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -1214,8 +1230,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -1237,8 +1253,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -1260,8 +1276,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -1283,8 +1299,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -1306,8 +1322,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1343,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1378,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -1400,8 +1416,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -1423,8 +1439,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -1446,8 +1462,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -1469,8 +1485,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -1492,8 +1508,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -1515,8 +1531,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -1538,8 +1554,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -1561,8 +1577,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -1584,8 +1600,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -1607,8 +1623,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -1630,8 +1646,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -1653,8 +1669,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -1676,8 +1692,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -1699,8 +1715,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1736,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1771,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -1793,8 +1809,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -1816,8 +1832,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -1839,8 +1855,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -1862,8 +1878,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -1885,8 +1901,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -1908,8 +1924,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -1931,8 +1947,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -1954,8 +1970,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -1977,8 +1993,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -2000,8 +2016,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -2023,8 +2039,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -2046,8 +2062,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -2069,8 +2085,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -2092,8 +2108,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2129,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2164,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -2186,8 +2202,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -2209,8 +2225,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -2232,8 +2248,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -2255,8 +2271,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -2278,8 +2294,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -2301,8 +2317,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -2324,8 +2340,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -2347,8 +2363,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -2370,8 +2386,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -2393,8 +2409,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -2416,8 +2432,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -2439,8 +2455,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -2462,8 +2478,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -2485,8 +2501,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2522,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2557,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -2579,8 +2595,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -2602,8 +2618,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -2625,8 +2641,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -2648,8 +2664,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -2671,8 +2687,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -2694,8 +2710,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -2717,8 +2733,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -2740,8 +2756,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -2763,8 +2779,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -2786,8 +2802,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -2809,8 +2825,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -2832,8 +2848,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -2855,8 +2871,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -2878,8 +2894,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2899,7 +2915,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2950,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -2972,8 +2988,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -2995,8 +3011,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -3018,8 +3034,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -3041,8 +3057,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -3064,8 +3080,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -3087,8 +3103,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -3110,8 +3126,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -3133,8 +3149,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -3156,8 +3172,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -3179,8 +3195,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -3202,8 +3218,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -3225,8 +3241,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -3248,8 +3264,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -3271,8 +3287,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -3292,7 +3308,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3343,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -3365,8 +3381,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -3388,8 +3404,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -3411,8 +3427,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -3434,8 +3450,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -3457,8 +3473,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -3480,8 +3496,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -3503,8 +3519,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -3526,8 +3542,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -3549,8 +3565,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -3572,8 +3588,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -3595,8 +3611,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -3618,8 +3634,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -3641,8 +3657,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -3664,8 +3680,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -3684,8 +3700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3736,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -3758,8 +3774,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -3781,8 +3797,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -3804,8 +3820,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -3827,8 +3843,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -3850,8 +3866,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -3873,8 +3889,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -3896,8 +3912,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -3919,8 +3935,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -3942,8 +3958,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -3965,8 +3981,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -3988,8 +4004,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -4011,8 +4027,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -4034,8 +4050,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -4057,8 +4073,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4094,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4129,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4151,8 +4167,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4174,8 +4190,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -4197,8 +4213,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -4220,8 +4236,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -4243,8 +4259,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -4266,8 +4282,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -4289,8 +4305,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -4312,8 +4328,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -4335,8 +4351,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -4358,8 +4374,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -4381,8 +4397,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -4404,8 +4420,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -4427,8 +4443,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -4450,8 +4466,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -4471,7 +4487,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4523,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -4545,8 +4561,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -4568,8 +4584,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -4591,8 +4607,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -4614,8 +4630,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -4637,8 +4653,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -4660,8 +4676,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -4683,8 +4699,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -4706,8 +4722,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -4729,8 +4745,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -4752,8 +4768,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -4775,8 +4791,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -4798,8 +4814,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -4821,8 +4837,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -4844,8 +4860,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -4865,7 +4881,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4916,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4938,8 +4954,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4961,8 +4977,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -4984,8 +5000,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -5007,8 +5023,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -5030,8 +5046,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -5053,8 +5069,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -5076,8 +5092,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -5099,8 +5115,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -5122,8 +5138,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -5145,8 +5161,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -5168,8 +5184,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -5191,8 +5207,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -5214,8 +5230,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -5237,8 +5253,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -5258,7 +5274,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5309,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -5331,8 +5347,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -5354,8 +5370,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -5377,8 +5393,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -5400,8 +5416,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -5423,8 +5439,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -5446,8 +5462,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -5469,8 +5485,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -5492,8 +5508,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -5515,8 +5531,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -5538,8 +5554,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -5561,8 +5577,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -5584,8 +5600,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -5607,8 +5623,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -5630,8 +5646,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5667,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5702,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -5724,8 +5740,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -5747,8 +5763,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -5770,8 +5786,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -5793,8 +5809,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -5816,8 +5832,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -5839,8 +5855,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -5862,8 +5878,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -5885,8 +5901,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -5908,8 +5924,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -5931,8 +5947,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -5954,8 +5970,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -5977,8 +5993,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -6000,8 +6016,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -6023,8 +6039,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -6044,7 +6060,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6095,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -6117,8 +6133,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -6140,8 +6156,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -6163,8 +6179,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -6186,8 +6202,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -6209,8 +6225,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -6232,8 +6248,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -6255,8 +6271,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -6278,8 +6294,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -6301,8 +6317,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -6324,8 +6340,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -6347,8 +6363,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -6370,8 +6386,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -6393,8 +6409,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -6416,8 +6432,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -6437,7 +6453,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6488,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -6510,8 +6526,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -6533,8 +6549,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -6556,8 +6572,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -6579,8 +6595,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -6602,8 +6618,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -6625,8 +6641,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -6648,8 +6664,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -6671,8 +6687,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -6694,8 +6710,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -6717,8 +6733,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -6740,8 +6756,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -6763,8 +6779,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -6786,8 +6802,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -6809,8 +6825,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -6830,7 +6846,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6881,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -6903,8 +6919,8 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>34128</v>
+      <c r="G3" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -6926,8 +6942,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>45504</v>
+      <c r="G4" s="4">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -6949,8 +6965,8 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>56880</v>
+      <c r="G5" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -6972,8 +6988,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>68256</v>
+      <c r="G6" s="4">
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -6995,8 +7011,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>91008</v>
+      <c r="G7" s="4">
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -7018,8 +7034,8 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>113760</v>
+      <c r="G8" s="4">
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -7041,8 +7057,8 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>136512</v>
+      <c r="G9" s="4">
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -7064,8 +7080,8 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>159264</v>
+      <c r="G10" s="4">
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -7087,8 +7103,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>182016</v>
+      <c r="G11" s="4">
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -7110,8 +7126,8 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>204768</v>
+      <c r="G12" s="4">
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -7133,8 +7149,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>204768</v>
+      <c r="G13" s="4">
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -7156,8 +7172,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>204768</v>
+      <c r="G14" s="4">
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -7179,8 +7195,8 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>204768</v>
+      <c r="G15" s="4">
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -7202,8 +7218,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>204768</v>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1580" windowWidth="38340" windowHeight="16360" tabRatio="968"/>
+    <workbookView xWindow="180" yWindow="3860" windowWidth="33980" windowHeight="16140" tabRatio="968" firstSheet="3" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="9">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>INT_buildTime</t>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -232,7 +240,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +257,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB1A0C7"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -307,7 +321,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="180">
+  <cellStyleXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -492,8 +506,84 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,8 +597,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="180">
+  <cellStyles count="256">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -601,6 +694,44 @@
     <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -686,6 +817,44 @@
     <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1135,9 +1304,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1315,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,13 +1337,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>6200</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1189,15 +1361,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>16320</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1212,15 +1387,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H3" s="5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>42760</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1235,15 +1413,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H4" s="5">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>79320</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1258,15 +1439,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>9600</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>130500</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -1281,15 +1465,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>14400</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>196880</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -1304,15 +1491,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>373500</v>
       </c>
       <c r="C8" s="1">
         <v>80</v>
@@ -1327,15 +1517,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>514500</v>
       </c>
       <c r="C9" s="1">
         <v>160</v>
@@ -1350,15 +1543,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>678000</v>
       </c>
       <c r="C10" s="1">
         <v>320</v>
@@ -1373,15 +1569,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H10" s="5">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>877500</v>
       </c>
       <c r="C11" s="1">
         <v>480</v>
@@ -1396,15 +1595,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>1110000</v>
       </c>
       <c r="C12" s="1">
         <v>640</v>
@@ -1419,15 +1621,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+      <c r="H12" s="5">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>1722200</v>
       </c>
       <c r="C13" s="1">
         <v>800</v>
@@ -1442,15 +1647,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>201600</v>
+      </c>
+      <c r="H13" s="5">
+        <v>34450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>2115000</v>
       </c>
       <c r="C14" s="1">
         <v>960</v>
@@ -1465,18 +1673,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+      <c r="H14" s="5">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>2547200</v>
       </c>
       <c r="C15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1487,19 +1698,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>259200</v>
+      </c>
+      <c r="H15" s="5">
+        <v>50950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>3600000</v>
       </c>
       <c r="C16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1511,7 +1725,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>288000</v>
+      </c>
+      <c r="H16" s="5">
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
@@ -1528,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1539,7 +1756,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1561,13 +1778,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1453</v>
+        <v>13700</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1582,15 +1802,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H2" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3829</v>
+        <v>36000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1605,15 +1828,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>10032</v>
+        <v>94100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1628,15 +1854,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>5480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>18612</v>
+        <v>174600</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1651,15 +1880,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>21320</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>30625</v>
+        <v>287100</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1674,15 +1906,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>46201</v>
+        <v>433200</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1697,15 +1932,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>87648</v>
+        <v>821800</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1720,15 +1958,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>120737</v>
+        <v>1131900</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1743,15 +1984,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H9" s="1">
+        <v>22640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>159104</v>
+        <v>1491700</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1766,15 +2010,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H10" s="1">
+        <v>29840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>205921</v>
+        <v>1930600</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1789,15 +2036,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>95241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>317000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>38620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>260481</v>
+        <v>2442000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1812,15 +2062,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>111081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>380361</v>
+      </c>
+      <c r="H12" s="1">
+        <v>48840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>404141</v>
+        <v>3788900</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1835,15 +2088,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>126921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>443721</v>
+      </c>
+      <c r="H13" s="1">
+        <v>75780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>496321</v>
+        <v>4653000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1858,21 +2114,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>142760</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>507081</v>
+      </c>
+      <c r="H14" s="1">
+        <v>93060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>597740</v>
+        <v>5603900</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>2240</v>
+        <v>2400</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1880,22 +2139,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>158600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>570440</v>
+      </c>
+      <c r="H15" s="1">
+        <v>112080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>844801</v>
+        <v>7920100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1904,7 +2166,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>174240</v>
+        <v>633600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>158410</v>
       </c>
     </row>
   </sheetData>
@@ -1921,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1932,7 +2197,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1954,13 +2219,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>7500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1975,15 +2243,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2040</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>19600</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1998,15 +2269,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>51400</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2021,15 +2295,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>95200</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2044,15 +2321,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>156600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2067,15 +2347,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>17880</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>236300</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2090,15 +2373,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>448200</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2113,15 +2399,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>617400</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2136,15 +2425,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>104280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>813600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2159,15 +2451,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>1053000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2182,15 +2477,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>173400</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>1332000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2205,15 +2503,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>61080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>2066700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2228,15 +2529,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>242520</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>2538000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2250,16 +2554,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>78360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>277080</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>3056700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2268,21 +2575,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>311640</v>
+      </c>
+      <c r="H15" s="1">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>4320000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2291,13 +2601,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>95040</v>
+        <v>345600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>86400</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2325,7 +2638,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2347,13 +2660,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>7500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2368,15 +2684,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2040</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>19600</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2391,15 +2710,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>51400</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2414,15 +2736,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>95200</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2437,15 +2762,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>156600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2460,15 +2788,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>17880</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>236300</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2483,15 +2814,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>448200</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2506,15 +2840,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>617400</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2529,15 +2866,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>104280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>813600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2552,15 +2892,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>1053000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2575,15 +2918,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>173400</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>1332000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2598,15 +2944,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>61080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>2066700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2621,15 +2970,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>242520</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>2538000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2643,16 +2995,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>78360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>277080</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>3056700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2661,21 +3016,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>311640</v>
+      </c>
+      <c r="H15" s="1">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>4320000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2684,13 +3042,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>95040</v>
+        <v>345600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>86400</v>
       </c>
     </row>
   </sheetData>
@@ -2707,10 +3068,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2718,7 +3079,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2740,13 +3101,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>7500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2761,15 +3125,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2040</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>19600</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2784,15 +3151,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>51400</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2807,15 +3177,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>95200</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2830,15 +3203,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>156600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2853,15 +3229,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>17880</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>236300</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2876,15 +3255,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>448200</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2899,15 +3281,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>617400</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2922,15 +3307,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>104280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>813600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2945,15 +3333,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>1053000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2968,15 +3359,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>173400</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>1332000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2991,15 +3385,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>61080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>2066700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -3014,15 +3411,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>242520</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>2538000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3036,16 +3436,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>78360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>277080</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>3056700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -3054,21 +3457,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>311640</v>
+      </c>
+      <c r="H15" s="1">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>4320000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -3077,13 +3483,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>95040</v>
+        <v>345600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>86400</v>
       </c>
     </row>
   </sheetData>
@@ -3100,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3111,7 +3520,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3133,13 +3542,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>7500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3154,15 +3566,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2040</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>19600</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3177,15 +3592,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>51400</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3200,15 +3618,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>95200</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3223,15 +3644,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>156600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3246,15 +3670,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>17880</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>236300</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -3269,15 +3696,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>448200</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -3292,15 +3722,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>617400</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -3315,15 +3748,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>104280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>813600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -3338,15 +3774,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>1053000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -3361,15 +3800,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>173400</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>1332000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -3384,15 +3826,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>61080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>2066700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -3407,15 +3852,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>242520</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>2538000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3429,16 +3877,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>78360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>277080</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>3056700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -3447,21 +3898,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>311640</v>
+      </c>
+      <c r="H15" s="1">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>4320000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -3470,13 +3924,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>95040</v>
+        <v>345600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>86400</v>
       </c>
     </row>
   </sheetData>
@@ -3493,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H2" sqref="H2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3504,7 +3961,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3526,13 +3983,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1584</v>
+        <v>14900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3547,15 +4007,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H2" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>4176</v>
+        <v>39200</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3570,15 +4033,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H3" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>10944</v>
+        <v>102700</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3593,15 +4059,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>20304</v>
+        <v>190400</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3616,15 +4085,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>23640</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>33408</v>
+        <v>313200</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3639,15 +4111,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>50400</v>
+        <v>472600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -3662,15 +4137,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>95616</v>
+        <v>896400</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -3685,15 +4163,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H8" s="1">
+        <v>17930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>131712</v>
+        <v>1234800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -3708,15 +4189,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H9" s="1">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>173568</v>
+        <v>1627200</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -3731,15 +4215,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>277080</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>224640</v>
+        <v>2106000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -3754,15 +4241,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>104280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>346200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>42120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>284160</v>
+        <v>2664000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -3777,15 +4267,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>121560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>415320</v>
+      </c>
+      <c r="H12" s="1">
+        <v>53280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>440880</v>
+        <v>4133300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -3800,15 +4293,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>138840</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>484440</v>
+      </c>
+      <c r="H13" s="1">
+        <v>82670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>541440</v>
+        <v>5076000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3823,15 +4319,18 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>156120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>553560</v>
+      </c>
+      <c r="H14" s="1">
+        <v>101520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>652080</v>
+        <v>6113300</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -3840,21 +4339,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>2240</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>173400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>622680</v>
+      </c>
+      <c r="H15" s="1">
+        <v>122270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>921600</v>
+        <v>8640000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -3863,13 +4365,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>190080</v>
+        <v>691200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>172800</v>
       </c>
     </row>
   </sheetData>
@@ -3886,10 +4391,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3897,7 +4402,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3919,13 +4424,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>990</v>
+        <v>9300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3940,15 +4448,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2610</v>
+        <v>24500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3963,15 +4474,18 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6840</v>
+        <v>64200</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3986,15 +4500,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>12690</v>
+        <v>119000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4009,15 +4526,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20880</v>
+        <v>195800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4032,15 +4552,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>22800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>31500</v>
+        <v>295400</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4055,15 +4578,18 @@
         <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>59760</v>
+        <v>560300</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4078,15 +4604,18 @@
         <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>82320</v>
+        <v>771800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -4101,15 +4630,18 @@
         <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>130800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>108480</v>
+        <v>1017000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -4124,15 +4656,18 @@
         <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>140400</v>
+        <v>1316300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -4147,15 +4682,18 @@
         <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>217200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>177600</v>
+        <v>1665000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -4170,15 +4708,18 @@
         <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>275550</v>
+        <v>2583300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4193,15 +4734,18 @@
         <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>303600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>51670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>338400</v>
+        <v>3172500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4215,16 +4759,19 @@
       <c r="F14" s="1">
         <v>960</v>
       </c>
-      <c r="G14" s="4">
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>346800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>63450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>407550</v>
+        <v>3820800</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -4236,18 +4783,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="1">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>390000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>576000</v>
+        <v>5400000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -4259,10 +4809,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="1">
-        <v>118800</v>
+        <v>432000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
@@ -4279,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4290,7 +4843,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4312,13 +4865,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>990</v>
+        <v>9300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4333,15 +4889,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2610</v>
+        <v>24500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4356,15 +4915,18 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6840</v>
+        <v>64200</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4379,15 +4941,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>12690</v>
+        <v>119000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4402,15 +4967,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20880</v>
+        <v>195800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4425,15 +4993,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>22800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>31500</v>
+        <v>295400</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4448,15 +5019,18 @@
         <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>59760</v>
+        <v>560300</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4471,15 +5045,18 @@
         <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>82320</v>
+        <v>771800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -4494,15 +5071,18 @@
         <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>130800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>108480</v>
+        <v>1017000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -4517,15 +5097,18 @@
         <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>140400</v>
+        <v>1316300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -4540,15 +5123,18 @@
         <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>217200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>177600</v>
+        <v>1665000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -4563,15 +5149,18 @@
         <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>275550</v>
+        <v>2583300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4586,15 +5175,18 @@
         <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>303600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>51670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>338400</v>
+        <v>3172500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4608,16 +5200,19 @@
       <c r="F14" s="1">
         <v>960</v>
       </c>
-      <c r="G14" s="4">
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>346800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>63450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>407550</v>
+        <v>3820800</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -4629,18 +5224,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="1">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>390000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>576000</v>
+        <v>5400000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -4652,10 +5250,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="1">
-        <v>118800</v>
+        <v>432000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
@@ -4672,10 +5273,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4683,7 +5284,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4705,13 +5306,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>990</v>
+        <v>9300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4726,15 +5330,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2610</v>
+        <v>24500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4749,15 +5356,18 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6840</v>
+        <v>64200</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4772,15 +5382,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>12690</v>
+        <v>119000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4795,15 +5408,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20880</v>
+        <v>195800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4818,15 +5434,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>22800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>31500</v>
+        <v>295400</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4841,15 +5460,18 @@
         <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>59760</v>
+        <v>560300</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4864,15 +5486,18 @@
         <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>82320</v>
+        <v>771800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -4887,15 +5512,18 @@
         <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>130800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>108480</v>
+        <v>1017000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -4910,15 +5538,18 @@
         <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>140400</v>
+        <v>1316300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -4933,15 +5564,18 @@
         <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>217200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>177600</v>
+        <v>1665000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -4956,15 +5590,18 @@
         <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>275550</v>
+        <v>2583300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4979,15 +5616,18 @@
         <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>303600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>51670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>338400</v>
+        <v>3172500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5001,16 +5641,19 @@
       <c r="F14" s="1">
         <v>960</v>
       </c>
-      <c r="G14" s="4">
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>346800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>63450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>407550</v>
+        <v>3820800</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -5022,18 +5665,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="1">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>390000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>576000</v>
+        <v>5400000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -5045,10 +5691,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="1">
-        <v>118800</v>
+        <v>432000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
@@ -5065,10 +5714,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5076,7 +5725,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5098,13 +5747,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>990</v>
+        <v>9300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5119,15 +5771,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2610</v>
+        <v>24500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5142,15 +5797,18 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6840</v>
+        <v>64200</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5165,15 +5823,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>12690</v>
+        <v>119000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5188,15 +5849,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20880</v>
+        <v>195800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5211,15 +5875,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>22800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>31500</v>
+        <v>295400</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -5234,15 +5901,18 @@
         <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>59760</v>
+        <v>560300</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -5257,15 +5927,18 @@
         <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>82320</v>
+        <v>771800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5280,15 +5953,18 @@
         <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>130800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>108480</v>
+        <v>1017000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5303,15 +5979,18 @@
         <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>140400</v>
+        <v>1316300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -5326,15 +6005,18 @@
         <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>217200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>177600</v>
+        <v>1665000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -5349,15 +6031,18 @@
         <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>275550</v>
+        <v>2583300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -5372,15 +6057,18 @@
         <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>303600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>51670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>338400</v>
+        <v>3172500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5394,16 +6082,19 @@
       <c r="F14" s="1">
         <v>960</v>
       </c>
-      <c r="G14" s="4">
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>346800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>63450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>407550</v>
+        <v>3820800</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -5415,18 +6106,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="1">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>390000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>576000</v>
+        <v>5400000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -5438,10 +6132,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="1">
-        <v>118800</v>
+        <v>432000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
@@ -5458,10 +6155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5469,7 +6166,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5491,13 +6188,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>6200</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5512,15 +6212,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>16320</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5535,15 +6238,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H3" s="5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>42760</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -5558,15 +6264,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H4" s="5">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>79320</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5581,15 +6290,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>9600</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>130500</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -5604,15 +6316,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>14400</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>196880</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -5627,15 +6342,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>373500</v>
       </c>
       <c r="C8" s="1">
         <v>80</v>
@@ -5650,15 +6368,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>514500</v>
       </c>
       <c r="C9" s="1">
         <v>160</v>
@@ -5673,15 +6394,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>678000</v>
       </c>
       <c r="C10" s="1">
         <v>320</v>
@@ -5696,15 +6420,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H10" s="5">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>877500</v>
       </c>
       <c r="C11" s="1">
         <v>480</v>
@@ -5719,15 +6446,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>1110000</v>
       </c>
       <c r="C12" s="1">
         <v>640</v>
@@ -5742,15 +6472,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+      <c r="H12" s="5">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>1722200</v>
       </c>
       <c r="C13" s="1">
         <v>800</v>
@@ -5765,15 +6498,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>201600</v>
+      </c>
+      <c r="H13" s="5">
+        <v>34450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>2115000</v>
       </c>
       <c r="C14" s="1">
         <v>960</v>
@@ -5788,18 +6524,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+      <c r="H14" s="5">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>2547200</v>
       </c>
       <c r="C15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -5810,19 +6549,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>259200</v>
+      </c>
+      <c r="H15" s="5">
+        <v>50950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>3600000</v>
       </c>
       <c r="C16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -5834,7 +6576,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>288000</v>
+      </c>
+      <c r="H16" s="5">
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
@@ -5851,10 +6596,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L20" sqref="L19:L20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5862,7 +6607,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5884,13 +6629,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1980</v>
+        <v>18600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5905,15 +6653,18 @@
         <v>2</v>
       </c>
       <c r="G2" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H2" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5220</v>
+        <v>49000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5928,15 +6679,18 @@
         <v>4</v>
       </c>
       <c r="G3" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H3" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>13680</v>
+        <v>128300</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5951,15 +6705,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="4">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>25380</v>
+        <v>238000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5974,15 +6731,18 @@
         <v>20</v>
       </c>
       <c r="G5" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>41760</v>
+        <v>391500</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5997,15 +6757,18 @@
         <v>40</v>
       </c>
       <c r="G6" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>63000</v>
+        <v>590700</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -6020,15 +6783,18 @@
         <v>80</v>
       </c>
       <c r="G7" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>119520</v>
+        <v>1120500</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -6043,15 +6809,18 @@
         <v>160</v>
       </c>
       <c r="G8" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>22410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>164640</v>
+        <v>1543500</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -6066,15 +6835,18 @@
         <v>320</v>
       </c>
       <c r="G9" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>216960</v>
+        <v>2034000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -6089,15 +6861,18 @@
         <v>640</v>
       </c>
       <c r="G10" s="4">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>346800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>280800</v>
+        <v>2632500</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -6112,15 +6887,18 @@
         <v>960</v>
       </c>
       <c r="G11" s="4">
-        <v>130800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>433200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>355200</v>
+        <v>3330000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -6135,15 +6913,18 @@
         <v>1280</v>
       </c>
       <c r="G12" s="4">
-        <v>152400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>519600</v>
+      </c>
+      <c r="H12" s="1">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>551100</v>
+        <v>5166600</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -6158,15 +6939,18 @@
         <v>1600</v>
       </c>
       <c r="G13" s="4">
-        <v>174000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>606000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>103340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>676800</v>
+        <v>6345000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -6181,15 +6965,18 @@
         <v>1920</v>
       </c>
       <c r="G14" s="4">
-        <v>195600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>692400</v>
+      </c>
+      <c r="H14" s="1">
+        <v>126900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>815100</v>
+        <v>7641600</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -6201,18 +6988,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>2240</v>
-      </c>
-      <c r="G15" s="4">
-        <v>217200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="G15" s="1">
+        <v>778800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>152840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1152000</v>
+        <v>10800000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -6224,10 +7014,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="G16" s="1">
-        <v>237600</v>
+        <v>864000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>216000</v>
       </c>
     </row>
   </sheetData>
@@ -6247,7 +7040,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6277,14 +7070,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>6200</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -6299,7 +7094,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>600</v>
+        <v>1200</v>
+      </c>
+      <c r="H2" s="5">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -6307,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>16320</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6322,7 +7120,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1200</v>
+        <v>2400</v>
+      </c>
+      <c r="H3" s="5">
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -6330,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>42760</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -6345,7 +7146,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2400</v>
+        <v>4800</v>
+      </c>
+      <c r="H4" s="5">
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -6353,7 +7157,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>79320</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -6368,7 +7172,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>3600</v>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1590</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -6376,7 +7183,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>130500</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -6391,7 +7198,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>7200</v>
+        <v>14400</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2610</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -6399,7 +7209,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>196880</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -6414,7 +7224,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>14400</v>
+        <v>28800</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3940</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -6422,7 +7235,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>373500</v>
       </c>
       <c r="C8" s="1">
         <v>80</v>
@@ -6437,7 +7250,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>21600</v>
+        <v>57600</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7470</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -6445,7 +7261,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>514500</v>
       </c>
       <c r="C9" s="1">
         <v>160</v>
@@ -6460,7 +7276,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>28800</v>
+        <v>86400</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10290</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -6468,7 +7287,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>678000</v>
       </c>
       <c r="C10" s="1">
         <v>320</v>
@@ -6483,7 +7302,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>36000</v>
+        <v>115200</v>
+      </c>
+      <c r="H10" s="5">
+        <v>13560</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -6491,7 +7313,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>877500</v>
       </c>
       <c r="C11" s="1">
         <v>480</v>
@@ -6506,7 +7328,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>43200</v>
+        <v>144000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>17550</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -6514,7 +7339,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>1110000</v>
       </c>
       <c r="C12" s="1">
         <v>640</v>
@@ -6529,7 +7354,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>50400</v>
+        <v>172800</v>
+      </c>
+      <c r="H12" s="5">
+        <v>22200</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -6537,7 +7365,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>1722200</v>
       </c>
       <c r="C13" s="1">
         <v>800</v>
@@ -6552,7 +7380,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>57600</v>
+        <v>201600</v>
+      </c>
+      <c r="H13" s="5">
+        <v>34450</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -6560,7 +7391,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>2115000</v>
       </c>
       <c r="C14" s="1">
         <v>960</v>
@@ -6575,7 +7406,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>64800</v>
+        <v>230400</v>
+      </c>
+      <c r="H14" s="5">
+        <v>42300</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -6583,10 +7417,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>2547200</v>
       </c>
       <c r="C15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -6597,8 +7431,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>72000</v>
+      <c r="G15" s="1">
+        <v>259200</v>
+      </c>
+      <c r="H15" s="5">
+        <v>50950</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -6606,10 +7443,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>3600000</v>
       </c>
       <c r="C16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -6621,7 +7458,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>288000</v>
+      </c>
+      <c r="H16" s="5">
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
@@ -6638,10 +7478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6649,7 +7489,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6671,13 +7511,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>6200</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -6692,15 +7535,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>16320</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6715,15 +7561,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H3" s="5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>42760</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -6738,15 +7587,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H4" s="5">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>79320</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -6761,15 +7613,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>9600</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>130500</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -6784,15 +7639,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>14400</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>196880</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -6807,15 +7665,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>373500</v>
       </c>
       <c r="C8" s="1">
         <v>80</v>
@@ -6830,15 +7691,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>514500</v>
       </c>
       <c r="C9" s="1">
         <v>160</v>
@@ -6853,15 +7717,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>678000</v>
       </c>
       <c r="C10" s="1">
         <v>320</v>
@@ -6876,15 +7743,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H10" s="5">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>877500</v>
       </c>
       <c r="C11" s="1">
         <v>480</v>
@@ -6899,15 +7769,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>1110000</v>
       </c>
       <c r="C12" s="1">
         <v>640</v>
@@ -6922,15 +7795,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+      <c r="H12" s="5">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>1722200</v>
       </c>
       <c r="C13" s="1">
         <v>800</v>
@@ -6945,15 +7821,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>201600</v>
+      </c>
+      <c r="H13" s="5">
+        <v>34450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>2115000</v>
       </c>
       <c r="C14" s="1">
         <v>960</v>
@@ -6968,18 +7847,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+      <c r="H14" s="5">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>2547200</v>
       </c>
       <c r="C15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -6990,19 +7872,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>259200</v>
+      </c>
+      <c r="H15" s="5">
+        <v>50950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>3600000</v>
       </c>
       <c r="C16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7014,7 +7899,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>288000</v>
+      </c>
+      <c r="H16" s="5">
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
@@ -7031,10 +7919,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7042,7 +7930,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7064,13 +7952,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1320</v>
+        <v>12400</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -7085,15 +7976,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H2" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3480</v>
+        <v>32640</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -7108,15 +8002,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>9120</v>
+        <v>85520</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -7131,15 +8028,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>9600</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>16920</v>
+        <v>158640</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -7154,15 +8054,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>19200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>27840</v>
+        <v>261000</v>
       </c>
       <c r="C6" s="1">
         <v>40</v>
@@ -7177,15 +8080,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>42000</v>
+        <v>393760</v>
       </c>
       <c r="C7" s="1">
         <v>80</v>
@@ -7200,15 +8106,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>79680</v>
+        <v>747000</v>
       </c>
       <c r="C8" s="1">
         <v>160</v>
@@ -7223,15 +8132,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>109760</v>
+        <v>1029000</v>
       </c>
       <c r="C9" s="1">
         <v>320</v>
@@ -7246,15 +8158,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>144640</v>
+        <v>1356000</v>
       </c>
       <c r="C10" s="1">
         <v>640</v>
@@ -7269,15 +8184,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>27120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>187200</v>
+        <v>1755000</v>
       </c>
       <c r="C11" s="1">
         <v>960</v>
@@ -7292,15 +8210,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>288000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>236800</v>
+        <v>2220000</v>
       </c>
       <c r="C12" s="1">
         <v>1280</v>
@@ -7315,15 +8236,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>100800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>345600</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>367400</v>
+        <v>3444400</v>
       </c>
       <c r="C13" s="1">
         <v>1600</v>
@@ -7338,15 +8262,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>115200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>403200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>68890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>451200</v>
+        <v>4230000</v>
       </c>
       <c r="C14" s="1">
         <v>1920</v>
@@ -7361,18 +8288,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>129600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>460800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>84600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>543400</v>
+        <v>5094400</v>
       </c>
       <c r="C15" s="1">
-        <v>2240</v>
+        <v>2400</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -7383,19 +8313,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>518400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>101890</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>768000</v>
+        <v>7200000</v>
       </c>
       <c r="C16" s="1">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7407,7 +8340,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>158400</v>
+        <v>576000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>144000</v>
       </c>
     </row>
   </sheetData>
@@ -7424,10 +8360,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7435,7 +8371,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7457,13 +8393,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>727</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7478,15 +8417,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1915</v>
+        <v>18000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7501,15 +8443,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5016</v>
+        <v>47100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7524,15 +8469,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9306</v>
+        <v>87300</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7547,15 +8495,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15313</v>
+        <v>143600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -7570,15 +8521,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>16041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23101</v>
+        <v>216600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -7593,15 +8547,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43824</v>
+        <v>410900</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -7616,15 +8573,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>23961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>60369</v>
+        <v>566000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -7639,15 +8599,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>95241</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>79552</v>
+        <v>745900</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -7662,15 +8625,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>102961</v>
+        <v>965300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -7685,15 +8651,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>158600</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>130241</v>
+        <v>1221000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -7708,15 +8677,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>55641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>202071</v>
+        <v>1894500</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -7731,15 +8703,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>221961</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>248161</v>
+        <v>2326500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -7754,21 +8729,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>71480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>298870</v>
+        <v>2802000</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -7776,22 +8754,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>285320</v>
+      </c>
+      <c r="H15" s="1">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>422401</v>
+        <v>3960100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -7800,7 +8781,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>87120</v>
+        <v>316800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>79210</v>
       </c>
     </row>
   </sheetData>
@@ -7817,10 +8801,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7828,7 +8812,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7850,13 +8834,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>727</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7871,15 +8858,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1915</v>
+        <v>18000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7894,15 +8884,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5016</v>
+        <v>47100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7917,15 +8910,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9306</v>
+        <v>87300</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7940,15 +8936,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15313</v>
+        <v>143600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -7963,15 +8962,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>16041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23101</v>
+        <v>216600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -7986,15 +8988,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43824</v>
+        <v>410900</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -8009,15 +9014,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>23961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>60369</v>
+        <v>566000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -8032,15 +9040,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>95241</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>79552</v>
+        <v>745900</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -8055,15 +9066,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>102961</v>
+        <v>965300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -8078,15 +9092,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>158600</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>130241</v>
+        <v>1221000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -8101,15 +9118,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>55641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>202071</v>
+        <v>1894500</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -8124,15 +9144,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>221961</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>248161</v>
+        <v>2326500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -8147,21 +9170,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>71480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>298870</v>
+        <v>2802000</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8169,22 +9195,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>285320</v>
+      </c>
+      <c r="H15" s="1">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>422401</v>
+        <v>3960100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8193,7 +9222,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>87120</v>
+        <v>316800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>79210</v>
       </c>
     </row>
   </sheetData>
@@ -8210,10 +9242,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8221,7 +9253,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8243,13 +9275,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>727</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -8264,15 +9299,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1915</v>
+        <v>18000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -8287,15 +9325,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5016</v>
+        <v>47100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -8310,15 +9351,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9306</v>
+        <v>87300</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -8333,15 +9377,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15313</v>
+        <v>143600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -8356,15 +9403,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>16041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23101</v>
+        <v>216600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -8379,15 +9429,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43824</v>
+        <v>410900</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -8402,15 +9455,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>23961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>60369</v>
+        <v>566000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -8425,15 +9481,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>95241</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>79552</v>
+        <v>745900</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -8448,15 +9507,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>102961</v>
+        <v>965300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -8471,15 +9533,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>158600</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>130241</v>
+        <v>1221000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -8494,15 +9559,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>55641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>202071</v>
+        <v>1894500</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -8517,15 +9585,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>221961</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>248161</v>
+        <v>2326500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -8540,21 +9611,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>71480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>298870</v>
+        <v>2802000</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8562,22 +9636,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>285320</v>
+      </c>
+      <c r="H15" s="1">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>422401</v>
+        <v>3960100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8586,7 +9663,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>87120</v>
+        <v>316800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>79210</v>
       </c>
     </row>
   </sheetData>
@@ -8603,10 +9683,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8614,7 +9694,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8636,13 +9716,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>727</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -8657,15 +9740,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1915</v>
+        <v>18000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -8680,15 +9766,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5016</v>
+        <v>47100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -8703,15 +9792,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9306</v>
+        <v>87300</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -8726,15 +9818,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15313</v>
+        <v>143600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -8749,15 +9844,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>16041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23101</v>
+        <v>216600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -8772,15 +9870,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43824</v>
+        <v>410900</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -8795,15 +9896,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>23961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>60369</v>
+        <v>566000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -8818,15 +9922,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>95241</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>79552</v>
+        <v>745900</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -8841,15 +9948,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>102961</v>
+        <v>965300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -8864,15 +9974,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>158600</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>130241</v>
+        <v>1221000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -8887,15 +10000,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>55641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>202071</v>
+        <v>1894500</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -8910,15 +10026,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>221961</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>248161</v>
+        <v>2326500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -8933,21 +10052,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>71480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>298870</v>
+        <v>2802000</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8955,22 +10077,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>285320</v>
+      </c>
+      <c r="H15" s="1">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>422401</v>
+        <v>3960100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8979,7 +10104,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>87120</v>
+        <v>316800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>79210</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="3860" windowWidth="33980" windowHeight="16140" tabRatio="968" firstSheet="3" activeTab="19"/>
+    <workbookView xWindow="1740" yWindow="2320" windowWidth="33980" windowHeight="16140" tabRatio="968" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -240,7 +240,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +257,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB1A0C7"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -583,7 +577,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,9 +589,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,7 +1298,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1363,7 +1354,7 @@
       <c r="G2" s="4">
         <v>1200</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>130</v>
       </c>
     </row>
@@ -1389,7 +1380,7 @@
       <c r="G3" s="4">
         <v>2400</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>330</v>
       </c>
     </row>
@@ -1415,7 +1406,7 @@
       <c r="G4" s="4">
         <v>4800</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>860</v>
       </c>
     </row>
@@ -1441,7 +1432,7 @@
       <c r="G5" s="4">
         <v>9600</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1590</v>
       </c>
     </row>
@@ -1467,7 +1458,7 @@
       <c r="G6" s="4">
         <v>14400</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>2610</v>
       </c>
     </row>
@@ -1493,7 +1484,7 @@
       <c r="G7" s="4">
         <v>28800</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>3940</v>
       </c>
     </row>
@@ -1519,7 +1510,7 @@
       <c r="G8" s="4">
         <v>57600</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>7470</v>
       </c>
     </row>
@@ -1545,7 +1536,7 @@
       <c r="G9" s="4">
         <v>86400</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>10290</v>
       </c>
     </row>
@@ -1571,7 +1562,7 @@
       <c r="G10" s="4">
         <v>115200</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>13560</v>
       </c>
     </row>
@@ -1597,7 +1588,7 @@
       <c r="G11" s="4">
         <v>144000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>17550</v>
       </c>
     </row>
@@ -1623,7 +1614,7 @@
       <c r="G12" s="4">
         <v>172800</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>22200</v>
       </c>
     </row>
@@ -1649,7 +1640,7 @@
       <c r="G13" s="4">
         <v>201600</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>34450</v>
       </c>
     </row>
@@ -1675,7 +1666,7 @@
       <c r="G14" s="4">
         <v>230400</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>42300</v>
       </c>
     </row>
@@ -1701,7 +1692,7 @@
       <c r="G15" s="1">
         <v>259200</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>50950</v>
       </c>
     </row>
@@ -1727,7 +1718,7 @@
       <c r="G16" s="1">
         <v>288000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>72000</v>
       </c>
     </row>
@@ -6158,7 +6149,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6214,7 +6205,7 @@
       <c r="G2" s="4">
         <v>1200</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>130</v>
       </c>
     </row>
@@ -6240,7 +6231,7 @@
       <c r="G3" s="4">
         <v>2400</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>330</v>
       </c>
     </row>
@@ -6266,7 +6257,7 @@
       <c r="G4" s="4">
         <v>4800</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>860</v>
       </c>
     </row>
@@ -6292,7 +6283,7 @@
       <c r="G5" s="4">
         <v>9600</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1590</v>
       </c>
     </row>
@@ -6318,7 +6309,7 @@
       <c r="G6" s="4">
         <v>14400</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>2610</v>
       </c>
     </row>
@@ -6344,7 +6335,7 @@
       <c r="G7" s="4">
         <v>28800</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>3940</v>
       </c>
     </row>
@@ -6370,7 +6361,7 @@
       <c r="G8" s="4">
         <v>57600</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>7470</v>
       </c>
     </row>
@@ -6396,7 +6387,7 @@
       <c r="G9" s="4">
         <v>86400</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>10290</v>
       </c>
     </row>
@@ -6422,7 +6413,7 @@
       <c r="G10" s="4">
         <v>115200</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>13560</v>
       </c>
     </row>
@@ -6448,7 +6439,7 @@
       <c r="G11" s="4">
         <v>144000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>17550</v>
       </c>
     </row>
@@ -6474,7 +6465,7 @@
       <c r="G12" s="4">
         <v>172800</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>22200</v>
       </c>
     </row>
@@ -6500,7 +6491,7 @@
       <c r="G13" s="4">
         <v>201600</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>34450</v>
       </c>
     </row>
@@ -6526,7 +6517,7 @@
       <c r="G14" s="4">
         <v>230400</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>42300</v>
       </c>
     </row>
@@ -6552,7 +6543,7 @@
       <c r="G15" s="1">
         <v>259200</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>50950</v>
       </c>
     </row>
@@ -6578,7 +6569,7 @@
       <c r="G16" s="1">
         <v>288000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>72000</v>
       </c>
     </row>
@@ -6598,7 +6589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -7040,7 +7031,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7096,7 +7087,7 @@
       <c r="G2" s="4">
         <v>1200</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>130</v>
       </c>
     </row>
@@ -7122,7 +7113,7 @@
       <c r="G3" s="4">
         <v>2400</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>330</v>
       </c>
     </row>
@@ -7148,7 +7139,7 @@
       <c r="G4" s="4">
         <v>4800</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>860</v>
       </c>
     </row>
@@ -7174,7 +7165,7 @@
       <c r="G5" s="4">
         <v>9600</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1590</v>
       </c>
     </row>
@@ -7200,7 +7191,7 @@
       <c r="G6" s="4">
         <v>14400</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>2610</v>
       </c>
     </row>
@@ -7226,7 +7217,7 @@
       <c r="G7" s="4">
         <v>28800</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>3940</v>
       </c>
     </row>
@@ -7252,7 +7243,7 @@
       <c r="G8" s="4">
         <v>57600</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>7470</v>
       </c>
     </row>
@@ -7278,7 +7269,7 @@
       <c r="G9" s="4">
         <v>86400</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>10290</v>
       </c>
     </row>
@@ -7304,7 +7295,7 @@
       <c r="G10" s="4">
         <v>115200</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>13560</v>
       </c>
     </row>
@@ -7330,7 +7321,7 @@
       <c r="G11" s="4">
         <v>144000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>17550</v>
       </c>
     </row>
@@ -7356,7 +7347,7 @@
       <c r="G12" s="4">
         <v>172800</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>22200</v>
       </c>
     </row>
@@ -7382,7 +7373,7 @@
       <c r="G13" s="4">
         <v>201600</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>34450</v>
       </c>
     </row>
@@ -7408,7 +7399,7 @@
       <c r="G14" s="4">
         <v>230400</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>42300</v>
       </c>
     </row>
@@ -7434,7 +7425,7 @@
       <c r="G15" s="1">
         <v>259200</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>50950</v>
       </c>
     </row>
@@ -7460,7 +7451,7 @@
       <c r="G16" s="1">
         <v>288000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>72000</v>
       </c>
     </row>
@@ -7481,7 +7472,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7537,7 +7528,7 @@
       <c r="G2" s="4">
         <v>1200</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>130</v>
       </c>
     </row>
@@ -7563,7 +7554,7 @@
       <c r="G3" s="4">
         <v>2400</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>330</v>
       </c>
     </row>
@@ -7589,7 +7580,7 @@
       <c r="G4" s="4">
         <v>4800</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>860</v>
       </c>
     </row>
@@ -7615,7 +7606,7 @@
       <c r="G5" s="4">
         <v>9600</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1590</v>
       </c>
     </row>
@@ -7641,7 +7632,7 @@
       <c r="G6" s="4">
         <v>14400</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>2610</v>
       </c>
     </row>
@@ -7667,7 +7658,7 @@
       <c r="G7" s="4">
         <v>28800</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>3940</v>
       </c>
     </row>
@@ -7693,7 +7684,7 @@
       <c r="G8" s="4">
         <v>57600</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>7470</v>
       </c>
     </row>
@@ -7719,7 +7710,7 @@
       <c r="G9" s="4">
         <v>86400</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>10290</v>
       </c>
     </row>
@@ -7745,7 +7736,7 @@
       <c r="G10" s="4">
         <v>115200</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>13560</v>
       </c>
     </row>
@@ -7771,7 +7762,7 @@
       <c r="G11" s="4">
         <v>144000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>17550</v>
       </c>
     </row>
@@ -7797,7 +7788,7 @@
       <c r="G12" s="4">
         <v>172800</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>22200</v>
       </c>
     </row>
@@ -7823,7 +7814,7 @@
       <c r="G13" s="4">
         <v>201600</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>34450</v>
       </c>
     </row>
@@ -7849,7 +7840,7 @@
       <c r="G14" s="4">
         <v>230400</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>42300</v>
       </c>
     </row>
@@ -7875,7 +7866,7 @@
       <c r="G15" s="1">
         <v>259200</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>50950</v>
       </c>
     </row>
@@ -7901,7 +7892,7 @@
       <c r="G16" s="1">
         <v>288000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>72000</v>
       </c>
     </row>
@@ -7921,8 +7912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="380" windowWidth="29040" windowHeight="20560" tabRatio="968" firstSheet="6" activeTab="19"/>
+    <workbookView xWindow="280" yWindow="0" windowWidth="34420" windowHeight="20560" tabRatio="968" firstSheet="3" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -315,7 +315,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="338">
+  <cellStyleXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -330,6 +330,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -674,7 +684,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="338">
+  <cellStyles count="348">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -846,6 +856,11 @@
     <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1010,6 +1025,11 @@
     <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3072,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H64"/>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3112,13 +3132,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -3130,7 +3150,7 @@
         <v>300</v>
       </c>
       <c r="H2" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3138,13 +3158,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>12900</v>
+        <v>6500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -3156,7 +3176,7 @@
         <v>900</v>
       </c>
       <c r="H3" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3164,13 +3184,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>19200</v>
+        <v>9600</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -3182,7 +3202,7 @@
         <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>390</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3190,13 +3210,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>25500</v>
+        <v>12800</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -3208,7 +3228,7 @@
         <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>510</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3216,13 +3236,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -3234,7 +3254,7 @@
         <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3242,13 +3262,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>38300</v>
+        <v>19200</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -3260,7 +3280,7 @@
         <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>770</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3268,13 +3288,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44800</v>
+        <v>22400</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3286,7 +3306,7 @@
         <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>900</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3294,13 +3314,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>51500</v>
+        <v>25800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -3312,7 +3332,7 @@
         <v>6400</v>
       </c>
       <c r="H9" s="1">
-        <v>1030</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3320,13 +3340,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>58400</v>
+        <v>29200</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3338,7 +3358,7 @@
         <v>9200</v>
       </c>
       <c r="H10" s="1">
-        <v>1170</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3346,13 +3366,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>65400</v>
+        <v>32700</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -3364,7 +3384,7 @@
         <v>12000</v>
       </c>
       <c r="H11" s="1">
-        <v>1310</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3372,13 +3392,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>72500</v>
+        <v>36300</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3390,7 +3410,7 @@
         <v>15096</v>
       </c>
       <c r="H12" s="1">
-        <v>1450</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3398,13 +3418,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>79800</v>
+        <v>39900</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3416,7 +3436,7 @@
         <v>18304</v>
       </c>
       <c r="H13" s="1">
-        <v>1600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3424,13 +3444,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>87200</v>
+        <v>43600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3442,7 +3462,7 @@
         <v>21624</v>
       </c>
       <c r="H14" s="1">
-        <v>1750</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3450,13 +3470,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>94800</v>
+        <v>47400</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3468,7 +3488,7 @@
         <v>25056</v>
       </c>
       <c r="H15" s="1">
-        <v>1900</v>
+        <v>950</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3476,13 +3496,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>102700</v>
+        <v>51400</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -3494,7 +3514,7 @@
         <v>28600</v>
       </c>
       <c r="H16" s="1">
-        <v>2060</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -3502,13 +3522,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>114100</v>
+        <v>57100</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -3520,7 +3540,7 @@
         <v>32256</v>
       </c>
       <c r="H17" s="1">
-        <v>2290</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -3528,13 +3548,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>123100</v>
+        <v>61600</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3546,7 +3566,7 @@
         <v>36024</v>
       </c>
       <c r="H18" s="1">
-        <v>2470</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -3554,13 +3574,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>132600</v>
+        <v>66300</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3572,7 +3592,7 @@
         <v>39904</v>
       </c>
       <c r="H19" s="1">
-        <v>2660</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -3580,13 +3600,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>142600</v>
+        <v>71300</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3598,7 +3618,7 @@
         <v>43896</v>
       </c>
       <c r="H20" s="1">
-        <v>2860</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -3606,13 +3626,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>153100</v>
+        <v>76600</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3624,7 +3644,7 @@
         <v>48000</v>
       </c>
       <c r="H21" s="1">
-        <v>3070</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -3632,13 +3652,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>164300</v>
+        <v>82200</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3650,7 +3670,7 @@
         <v>52216</v>
       </c>
       <c r="H22" s="1">
-        <v>3290</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -3658,13 +3678,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>176200</v>
+        <v>88100</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3676,7 +3696,7 @@
         <v>56544</v>
       </c>
       <c r="H23" s="1">
-        <v>3530</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -3684,13 +3704,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>189000</v>
+        <v>94500</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -3702,7 +3722,7 @@
         <v>60984</v>
       </c>
       <c r="H24" s="1">
-        <v>3780</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -3710,13 +3730,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>215500</v>
+        <v>107800</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -3728,7 +3748,7 @@
         <v>65536</v>
       </c>
       <c r="H25" s="1">
-        <v>4310</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -3736,13 +3756,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>232100</v>
+        <v>116100</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -3754,7 +3774,7 @@
         <v>70200</v>
       </c>
       <c r="H26" s="1">
-        <v>4650</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -3762,13 +3782,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>250400</v>
+        <v>125200</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3780,7 +3800,7 @@
         <v>74976</v>
       </c>
       <c r="H27" s="1">
-        <v>5010</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -3788,13 +3808,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>270300</v>
+        <v>135200</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -3806,7 +3826,7 @@
         <v>79864</v>
       </c>
       <c r="H28" s="1">
-        <v>5410</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -3814,13 +3834,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>292200</v>
+        <v>146100</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -3832,7 +3852,7 @@
         <v>84864</v>
       </c>
       <c r="H29" s="1">
-        <v>5850</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -3840,13 +3860,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>315900</v>
+        <v>158000</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -3858,7 +3878,7 @@
         <v>89976</v>
       </c>
       <c r="H30" s="1">
-        <v>6320</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -3866,13 +3886,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>342100</v>
+        <v>171100</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -3884,7 +3904,7 @@
         <v>95200</v>
       </c>
       <c r="H31" s="1">
-        <v>6850</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -3892,13 +3912,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>370900</v>
+        <v>185500</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -3910,7 +3930,7 @@
         <v>100536</v>
       </c>
       <c r="H32" s="1">
-        <v>7420</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -3918,13 +3938,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>442500</v>
+        <v>221300</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -3936,7 +3956,7 @@
         <v>105984</v>
       </c>
       <c r="H33" s="1">
-        <v>8850</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -3944,13 +3964,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>483500</v>
+        <v>241800</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -3962,7 +3982,7 @@
         <v>111544</v>
       </c>
       <c r="H34" s="1">
-        <v>9670</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -3970,13 +3990,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>528600</v>
+        <v>264300</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -3988,7 +4008,7 @@
         <v>117216</v>
       </c>
       <c r="H35" s="1">
-        <v>10580</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -3996,13 +4016,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>578800</v>
+        <v>289400</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -4014,7 +4034,7 @@
         <v>123000</v>
       </c>
       <c r="H36" s="1">
-        <v>11580</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -4022,13 +4042,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>634900</v>
+        <v>317500</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -4040,7 +4060,7 @@
         <v>128896</v>
       </c>
       <c r="H37" s="1">
-        <v>12700</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -4048,13 +4068,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>696800</v>
+        <v>348400</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -4066,7 +4086,7 @@
         <v>134904</v>
       </c>
       <c r="H38" s="1">
-        <v>13940</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -4074,13 +4094,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>766300</v>
+        <v>383200</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -4092,7 +4112,7 @@
         <v>141024</v>
       </c>
       <c r="H39" s="1">
-        <v>15330</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -4100,13 +4120,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>843600</v>
+        <v>421800</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -4118,7 +4138,7 @@
         <v>147256</v>
       </c>
       <c r="H40" s="1">
-        <v>16880</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -4126,13 +4146,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1042900</v>
+        <v>521500</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -4144,7 +4164,7 @@
         <v>153600</v>
       </c>
       <c r="H41" s="1">
-        <v>20860</v>
+        <v>10430</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -4152,13 +4172,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1153800</v>
+        <v>576900</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -4170,7 +4190,7 @@
         <v>160056</v>
       </c>
       <c r="H42" s="1">
-        <v>23080</v>
+        <v>11540</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -4178,13 +4198,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1277700</v>
+        <v>638900</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -4196,7 +4216,7 @@
         <v>166624</v>
       </c>
       <c r="H43" s="1">
-        <v>25560</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -4204,13 +4224,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1416100</v>
+        <v>708100</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -4222,7 +4242,7 @@
         <v>173304</v>
       </c>
       <c r="H44" s="1">
-        <v>28330</v>
+        <v>14170</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -4230,13 +4250,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1570600</v>
+        <v>785300</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -4248,7 +4268,7 @@
         <v>180096</v>
       </c>
       <c r="H45" s="1">
-        <v>31420</v>
+        <v>15710</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1">
@@ -4256,13 +4276,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1743000</v>
+        <v>871500</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -4274,7 +4294,7 @@
         <v>187000</v>
       </c>
       <c r="H46" s="1">
-        <v>34860</v>
+        <v>17430</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
@@ -4282,13 +4302,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1935600</v>
+        <v>967800</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -4300,7 +4320,7 @@
         <v>194016</v>
       </c>
       <c r="H47" s="1">
-        <v>38720</v>
+        <v>19360</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1">
@@ -4308,13 +4328,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2150200</v>
+        <v>1075100</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -4326,7 +4346,7 @@
         <v>201144</v>
       </c>
       <c r="H48" s="1">
-        <v>43010</v>
+        <v>21510</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1">
@@ -4334,13 +4354,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>2688300</v>
+        <v>1344200</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -4352,7 +4372,7 @@
         <v>208384</v>
       </c>
       <c r="H49" s="1">
-        <v>53770</v>
+        <v>26890</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1">
@@ -4360,13 +4380,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>2993600</v>
+        <v>1496800</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -4378,7 +4398,7 @@
         <v>215736</v>
       </c>
       <c r="H50" s="1">
-        <v>59880</v>
+        <v>29940</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1">
@@ -4386,13 +4406,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>3333800</v>
+        <v>1666900</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -4404,7 +4424,7 @@
         <v>223200</v>
       </c>
       <c r="H51" s="1">
-        <v>66680</v>
+        <v>33340</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1">
@@ -4412,13 +4432,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>3713100</v>
+        <v>1856600</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -4430,7 +4450,7 @@
         <v>230776</v>
       </c>
       <c r="H52" s="1">
-        <v>74270</v>
+        <v>37140</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
@@ -4438,13 +4458,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4137000</v>
+        <v>2068500</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -4456,7 +4476,7 @@
         <v>238464</v>
       </c>
       <c r="H53" s="1">
-        <v>82740</v>
+        <v>41370</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1">
@@ -4464,13 +4484,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4609500</v>
+        <v>2304800</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -4482,7 +4502,7 @@
         <v>246264</v>
       </c>
       <c r="H54" s="1">
-        <v>92190</v>
+        <v>46100</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1">
@@ -4490,13 +4510,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>5136600</v>
+        <v>2568300</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -4508,7 +4528,7 @@
         <v>254176</v>
       </c>
       <c r="H55" s="1">
-        <v>102740</v>
+        <v>51370</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1">
@@ -4516,13 +4536,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>5724600</v>
+        <v>2862300</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -4534,7 +4554,7 @@
         <v>262200</v>
       </c>
       <c r="H56" s="1">
-        <v>114500</v>
+        <v>57250</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1">
@@ -4542,13 +4562,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>6379800</v>
+        <v>3189900</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -4560,7 +4580,7 @@
         <v>270336</v>
       </c>
       <c r="H57" s="1">
-        <v>127600</v>
+        <v>63800</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1">
@@ -4568,13 +4588,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>7108500</v>
+        <v>3554300</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -4586,7 +4606,7 @@
         <v>278584</v>
       </c>
       <c r="H58" s="1">
-        <v>142170</v>
+        <v>71090</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1">
@@ -4594,13 +4614,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>7923300</v>
+        <v>3961700</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -4612,7 +4632,7 @@
         <v>286944</v>
       </c>
       <c r="H59" s="1">
-        <v>158470</v>
+        <v>79240</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1">
@@ -4620,13 +4640,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>8828400</v>
+        <v>4414200</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -4638,7 +4658,7 @@
         <v>295416</v>
       </c>
       <c r="H60" s="1">
-        <v>176570</v>
+        <v>88290</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1">
@@ -4646,13 +4666,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>9836400</v>
+        <v>4918200</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -4664,7 +4684,7 @@
         <v>304000</v>
       </c>
       <c r="H61" s="1">
-        <v>196730</v>
+        <v>98370</v>
       </c>
     </row>
   </sheetData>
@@ -4683,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11128,7 +11148,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H63"/>
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11167,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6900</v>
+        <v>3500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -11176,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -11185,7 +11205,7 @@
         <v>300</v>
       </c>
       <c r="H2" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -11193,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>13500</v>
+        <v>6800</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -11202,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -11211,7 +11231,7 @@
         <v>900</v>
       </c>
       <c r="H3" s="1">
-        <v>270</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -11219,7 +11239,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>20100</v>
+        <v>10100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -11228,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -11237,7 +11257,7 @@
         <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>410</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -11245,7 +11265,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>26700</v>
+        <v>13400</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -11254,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -11263,7 +11283,7 @@
         <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>540</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -11271,7 +11291,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>33500</v>
+        <v>16800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -11280,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -11289,7 +11309,7 @@
         <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>670</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -11297,7 +11317,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>40100</v>
+        <v>20100</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -11306,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -11315,7 +11335,7 @@
         <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>810</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -11323,7 +11343,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>46900</v>
+        <v>23500</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -11332,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -11341,7 +11361,7 @@
         <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>940</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -11349,7 +11369,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54000</v>
+        <v>27000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -11358,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -11367,7 +11387,7 @@
         <v>6400</v>
       </c>
       <c r="H9" s="1">
-        <v>1080</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -11375,7 +11395,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>61200</v>
+        <v>30600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -11384,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -11393,7 +11413,7 @@
         <v>9200</v>
       </c>
       <c r="H10" s="1">
-        <v>1230</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -11401,7 +11421,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>68500</v>
+        <v>34300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -11410,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -11419,7 +11439,7 @@
         <v>12000</v>
       </c>
       <c r="H11" s="1">
-        <v>1370</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -11427,7 +11447,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>75900</v>
+        <v>38000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -11436,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -11445,7 +11465,7 @@
         <v>15096</v>
       </c>
       <c r="H12" s="1">
-        <v>1520</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -11453,7 +11473,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>83600</v>
+        <v>41800</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -11462,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -11471,7 +11491,7 @@
         <v>18304</v>
       </c>
       <c r="H13" s="1">
-        <v>1680</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -11479,7 +11499,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>91400</v>
+        <v>45700</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -11488,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -11497,7 +11517,7 @@
         <v>21624</v>
       </c>
       <c r="H14" s="1">
-        <v>1830</v>
+        <v>920</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -11505,7 +11525,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>99300</v>
+        <v>49700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -11514,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -11523,7 +11543,7 @@
         <v>25056</v>
       </c>
       <c r="H15" s="1">
-        <v>1990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -11531,7 +11551,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>107600</v>
+        <v>53800</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -11540,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -11549,7 +11569,7 @@
         <v>28600</v>
       </c>
       <c r="H16" s="1">
-        <v>2160</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -11557,7 +11577,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>119500</v>
+        <v>59800</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -11566,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -11575,7 +11595,7 @@
         <v>32256</v>
       </c>
       <c r="H17" s="1">
-        <v>2390</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -11583,7 +11603,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>129000</v>
+        <v>64500</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -11592,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -11601,7 +11621,7 @@
         <v>36024</v>
       </c>
       <c r="H18" s="1">
-        <v>2580</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -11609,7 +11629,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>138900</v>
+        <v>69500</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -11618,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -11627,7 +11647,7 @@
         <v>39904</v>
       </c>
       <c r="H19" s="1">
-        <v>2780</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -11635,7 +11655,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>149400</v>
+        <v>74700</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -11644,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -11653,7 +11673,7 @@
         <v>43896</v>
       </c>
       <c r="H20" s="1">
-        <v>2990</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -11661,7 +11681,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>160400</v>
+        <v>80200</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -11670,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -11679,7 +11699,7 @@
         <v>48000</v>
       </c>
       <c r="H21" s="1">
-        <v>3210</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -11687,7 +11707,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>172100</v>
+        <v>86100</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -11696,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -11705,7 +11725,7 @@
         <v>52216</v>
       </c>
       <c r="H22" s="1">
-        <v>3450</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -11713,7 +11733,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>184600</v>
+        <v>92300</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -11722,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -11731,7 +11751,7 @@
         <v>56544</v>
       </c>
       <c r="H23" s="1">
-        <v>3700</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -11739,7 +11759,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>198100</v>
+        <v>99100</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -11748,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -11757,7 +11777,7 @@
         <v>60984</v>
       </c>
       <c r="H24" s="1">
-        <v>3970</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -11765,7 +11785,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>225800</v>
+        <v>112900</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -11774,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -11783,7 +11803,7 @@
         <v>65536</v>
       </c>
       <c r="H25" s="1">
-        <v>4520</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -11791,7 +11811,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>243200</v>
+        <v>121600</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -11800,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -11809,7 +11829,7 @@
         <v>70200</v>
       </c>
       <c r="H26" s="1">
-        <v>4870</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -11817,7 +11837,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>262300</v>
+        <v>131200</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -11826,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -11835,7 +11855,7 @@
         <v>74976</v>
       </c>
       <c r="H27" s="1">
-        <v>5250</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -11843,7 +11863,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>283200</v>
+        <v>141600</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -11852,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -11861,7 +11881,7 @@
         <v>79864</v>
       </c>
       <c r="H28" s="1">
-        <v>5670</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -11869,7 +11889,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>306100</v>
+        <v>153100</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -11878,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -11887,7 +11907,7 @@
         <v>84864</v>
       </c>
       <c r="H29" s="1">
-        <v>6130</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -11895,7 +11915,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>330900</v>
+        <v>165500</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -11904,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -11913,7 +11933,7 @@
         <v>89976</v>
       </c>
       <c r="H30" s="1">
-        <v>6620</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -11921,7 +11941,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>358400</v>
+        <v>179200</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -11930,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -11939,7 +11959,7 @@
         <v>95200</v>
       </c>
       <c r="H31" s="1">
-        <v>7170</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -11947,7 +11967,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>388600</v>
+        <v>194300</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -11956,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -11965,7 +11985,7 @@
         <v>100536</v>
       </c>
       <c r="H32" s="1">
-        <v>7780</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -11973,7 +11993,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>463600</v>
+        <v>231800</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -11982,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -11991,7 +12011,7 @@
         <v>105984</v>
       </c>
       <c r="H33" s="1">
-        <v>9280</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -11999,7 +12019,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>506500</v>
+        <v>253300</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -12008,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -12017,7 +12037,7 @@
         <v>111544</v>
       </c>
       <c r="H34" s="1">
-        <v>10130</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -12025,7 +12045,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>553800</v>
+        <v>276900</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -12034,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -12043,7 +12063,7 @@
         <v>117216</v>
       </c>
       <c r="H35" s="1">
-        <v>11080</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -12051,7 +12071,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>606400</v>
+        <v>303200</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -12060,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -12069,7 +12089,7 @@
         <v>123000</v>
       </c>
       <c r="H36" s="1">
-        <v>12130</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -12077,7 +12097,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>665100</v>
+        <v>332600</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -12086,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -12095,7 +12115,7 @@
         <v>128896</v>
       </c>
       <c r="H37" s="1">
-        <v>13310</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -12103,7 +12123,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>730000</v>
+        <v>365000</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -12112,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -12121,7 +12141,7 @@
         <v>134904</v>
       </c>
       <c r="H38" s="1">
-        <v>14600</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -12129,7 +12149,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>802800</v>
+        <v>401400</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -12138,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -12147,7 +12167,7 @@
         <v>141024</v>
       </c>
       <c r="H39" s="1">
-        <v>16060</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -12155,7 +12175,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>883800</v>
+        <v>441900</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -12164,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -12173,7 +12193,7 @@
         <v>147256</v>
       </c>
       <c r="H40" s="1">
-        <v>17680</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -12181,7 +12201,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1092600</v>
+        <v>546300</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -12190,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -12199,7 +12219,7 @@
         <v>153600</v>
       </c>
       <c r="H41" s="1">
-        <v>21860</v>
+        <v>10930</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -12207,7 +12227,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1208700</v>
+        <v>604400</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -12216,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -12225,7 +12245,7 @@
         <v>160056</v>
       </c>
       <c r="H42" s="1">
-        <v>24180</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -12233,7 +12253,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1338500</v>
+        <v>669300</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -12242,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -12251,7 +12271,7 @@
         <v>166624</v>
       </c>
       <c r="H43" s="1">
-        <v>26770</v>
+        <v>13390</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -12259,7 +12279,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1483500</v>
+        <v>741800</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -12268,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -12277,7 +12297,7 @@
         <v>173304</v>
       </c>
       <c r="H44" s="1">
-        <v>29670</v>
+        <v>14840</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -12285,7 +12305,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1645400</v>
+        <v>822700</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -12294,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -12303,7 +12323,7 @@
         <v>180096</v>
       </c>
       <c r="H45" s="1">
-        <v>32910</v>
+        <v>16460</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1">
@@ -12311,7 +12331,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1826100</v>
+        <v>913100</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -12320,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -12329,7 +12349,7 @@
         <v>187000</v>
       </c>
       <c r="H46" s="1">
-        <v>36530</v>
+        <v>18270</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
@@ -12337,7 +12357,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>2027800</v>
+        <v>1013900</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -12346,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -12355,7 +12375,7 @@
         <v>194016</v>
       </c>
       <c r="H47" s="1">
-        <v>40560</v>
+        <v>20280</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1">
@@ -12363,7 +12383,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2252600</v>
+        <v>1126300</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -12372,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -12381,7 +12401,7 @@
         <v>201144</v>
       </c>
       <c r="H48" s="1">
-        <v>45060</v>
+        <v>22530</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1">
@@ -12389,7 +12409,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>2816300</v>
+        <v>1408200</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -12398,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -12407,7 +12427,7 @@
         <v>208384</v>
       </c>
       <c r="H49" s="1">
-        <v>56330</v>
+        <v>28170</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1">
@@ -12415,7 +12435,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>3136200</v>
+        <v>1568100</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -12424,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -12433,7 +12453,7 @@
         <v>215736</v>
       </c>
       <c r="H50" s="1">
-        <v>62730</v>
+        <v>31370</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1">
@@ -12441,7 +12461,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>3492600</v>
+        <v>1746300</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -12450,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -12459,7 +12479,7 @@
         <v>223200</v>
       </c>
       <c r="H51" s="1">
-        <v>69860</v>
+        <v>34930</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1">
@@ -12467,7 +12487,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>3889900</v>
+        <v>1945000</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -12476,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -12485,7 +12505,7 @@
         <v>230776</v>
       </c>
       <c r="H52" s="1">
-        <v>77800</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
@@ -12493,7 +12513,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4334000</v>
+        <v>2167000</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -12502,7 +12522,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -12511,7 +12531,7 @@
         <v>238464</v>
       </c>
       <c r="H53" s="1">
-        <v>86680</v>
+        <v>43340</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1">
@@ -12519,7 +12539,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4829000</v>
+        <v>2414500</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -12528,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -12537,7 +12557,7 @@
         <v>246264</v>
       </c>
       <c r="H54" s="1">
-        <v>96580</v>
+        <v>48290</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1">
@@ -12545,7 +12565,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>5381200</v>
+        <v>2690600</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -12554,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -12563,7 +12583,7 @@
         <v>254176</v>
       </c>
       <c r="H55" s="1">
-        <v>107630</v>
+        <v>53820</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1">
@@ -12571,7 +12591,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>5997300</v>
+        <v>2998700</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -12580,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -12589,7 +12609,7 @@
         <v>262200</v>
       </c>
       <c r="H56" s="1">
-        <v>119950</v>
+        <v>59980</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1">
@@ -12597,7 +12617,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>6683700</v>
+        <v>3341900</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -12606,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -12615,7 +12635,7 @@
         <v>270336</v>
       </c>
       <c r="H57" s="1">
-        <v>133680</v>
+        <v>66840</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1">
@@ -12623,7 +12643,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>7447100</v>
+        <v>3723600</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -12632,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -12641,7 +12661,7 @@
         <v>278584</v>
       </c>
       <c r="H58" s="1">
-        <v>148950</v>
+        <v>74480</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1">
@@ -12649,7 +12669,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>8300700</v>
+        <v>4150400</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -12658,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -12667,7 +12687,7 @@
         <v>286944</v>
       </c>
       <c r="H59" s="1">
-        <v>166020</v>
+        <v>83010</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1">
@@ -12675,7 +12695,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>9248800</v>
+        <v>4624400</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -12684,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -12693,7 +12713,7 @@
         <v>295416</v>
       </c>
       <c r="H60" s="1">
-        <v>184980</v>
+        <v>92490</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1">
@@ -12701,7 +12721,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>10304800</v>
+        <v>5152400</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -12710,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -12719,7 +12739,7 @@
         <v>304000</v>
       </c>
       <c r="H61" s="1">
-        <v>206100</v>
+        <v>103050</v>
       </c>
     </row>
   </sheetData>
@@ -17571,8 +17591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -20794,7 +20814,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J13" sqref="I13:J13"/>
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -20833,7 +20853,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -20845,13 +20865,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4">
         <v>300</v>
       </c>
       <c r="H2" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -20859,7 +20879,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>14100</v>
+        <v>7100</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -20871,13 +20891,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
         <v>900</v>
       </c>
       <c r="H3" s="1">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -20885,7 +20905,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -20897,13 +20917,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4">
         <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -20911,7 +20931,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>27900</v>
+        <v>14000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -20923,13 +20943,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4">
         <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -20937,7 +20957,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -20949,13 +20969,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -20963,7 +20983,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>41900</v>
+        <v>21000</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -20975,13 +20995,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4">
         <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -20989,7 +21009,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>49000</v>
+        <v>24500</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -21001,13 +21021,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4">
         <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>980</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -21015,7 +21035,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>56400</v>
+        <v>28200</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -21027,13 +21047,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4">
         <v>6400</v>
       </c>
       <c r="H9" s="1">
-        <v>1130</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -21041,7 +21061,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -21053,13 +21073,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G10" s="4">
         <v>9200</v>
       </c>
       <c r="H10" s="1">
-        <v>1280</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -21067,7 +21087,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>71600</v>
+        <v>35800</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -21079,13 +21099,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4">
         <v>12000</v>
       </c>
       <c r="H11" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -21093,7 +21113,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>79400</v>
+        <v>39700</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -21105,13 +21125,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4">
         <v>15096</v>
       </c>
       <c r="H12" s="1">
-        <v>1590</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -21119,7 +21139,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>87400</v>
+        <v>43700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -21131,13 +21151,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1">
         <v>18304</v>
       </c>
       <c r="H13" s="1">
-        <v>1750</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -21145,7 +21165,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>95500</v>
+        <v>47800</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -21157,13 +21177,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1">
         <v>21624</v>
       </c>
       <c r="H14" s="1">
-        <v>1910</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -21171,7 +21191,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>103800</v>
+        <v>51900</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -21183,13 +21203,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1">
         <v>25056</v>
       </c>
       <c r="H15" s="1">
-        <v>2080</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -21197,7 +21217,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>112500</v>
+        <v>56300</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -21209,13 +21229,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1">
         <v>28600</v>
       </c>
       <c r="H16" s="1">
-        <v>2250</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -21223,7 +21243,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>124900</v>
+        <v>62500</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -21235,13 +21255,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
         <v>32256</v>
       </c>
       <c r="H17" s="1">
-        <v>2500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -21249,7 +21269,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>134800</v>
+        <v>67400</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -21261,13 +21281,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1">
         <v>36024</v>
       </c>
       <c r="H18" s="1">
-        <v>2700</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -21275,7 +21295,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>145200</v>
+        <v>72600</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -21287,13 +21307,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1">
         <v>39904</v>
       </c>
       <c r="H19" s="1">
-        <v>2910</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -21301,7 +21321,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>156200</v>
+        <v>78100</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -21313,13 +21333,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G20" s="1">
         <v>43896</v>
       </c>
       <c r="H20" s="1">
-        <v>3130</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -21327,7 +21347,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>167700</v>
+        <v>83900</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -21339,13 +21359,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1">
         <v>48000</v>
       </c>
       <c r="H21" s="1">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -21353,7 +21373,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>179900</v>
+        <v>90000</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -21365,13 +21385,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1">
         <v>52216</v>
       </c>
       <c r="H22" s="1">
-        <v>3600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -21379,7 +21399,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>193000</v>
+        <v>96500</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -21391,13 +21411,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1">
         <v>56544</v>
       </c>
       <c r="H23" s="1">
-        <v>3860</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -21405,7 +21425,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>207000</v>
+        <v>103500</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -21417,13 +21437,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1">
         <v>60984</v>
       </c>
       <c r="H24" s="1">
-        <v>4140</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -21431,7 +21451,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>236000</v>
+        <v>118000</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -21443,13 +21463,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G25" s="1">
         <v>65536</v>
       </c>
       <c r="H25" s="1">
-        <v>4720</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -21457,7 +21477,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>254200</v>
+        <v>127100</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -21469,13 +21489,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G26" s="1">
         <v>70200</v>
       </c>
       <c r="H26" s="1">
-        <v>5090</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -21483,7 +21503,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>274200</v>
+        <v>137100</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -21495,13 +21515,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1">
         <v>74976</v>
       </c>
       <c r="H27" s="1">
-        <v>5490</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -21509,7 +21529,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>296100</v>
+        <v>148100</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -21521,13 +21541,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G28" s="1">
         <v>79864</v>
       </c>
       <c r="H28" s="1">
-        <v>5930</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -21535,7 +21555,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -21547,13 +21567,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G29" s="1">
         <v>84864</v>
       </c>
       <c r="H29" s="1">
-        <v>6400</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -21561,7 +21581,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>346000</v>
+        <v>173000</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -21573,13 +21593,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G30" s="1">
         <v>89976</v>
       </c>
       <c r="H30" s="1">
-        <v>6920</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -21587,7 +21607,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>374700</v>
+        <v>187400</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -21599,13 +21619,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1">
         <v>95200</v>
       </c>
       <c r="H31" s="1">
-        <v>7500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -21613,7 +21633,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>406200</v>
+        <v>203100</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -21625,13 +21645,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1">
         <v>100536</v>
       </c>
       <c r="H32" s="1">
-        <v>8130</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -21639,7 +21659,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>484700</v>
+        <v>242400</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -21651,13 +21671,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="G33" s="1">
         <v>105984</v>
       </c>
       <c r="H33" s="1">
-        <v>9700</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -21665,7 +21685,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>529500</v>
+        <v>264800</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -21677,13 +21697,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G34" s="1">
         <v>111544</v>
       </c>
       <c r="H34" s="1">
-        <v>10590</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -21691,7 +21711,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>579000</v>
+        <v>289500</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -21703,13 +21723,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="G35" s="1">
         <v>117216</v>
       </c>
       <c r="H35" s="1">
-        <v>11580</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -21717,7 +21737,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>633900</v>
+        <v>317000</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -21729,13 +21749,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="G36" s="1">
         <v>123000</v>
       </c>
       <c r="H36" s="1">
-        <v>12680</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -21743,7 +21763,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>695300</v>
+        <v>347700</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -21755,13 +21775,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="G37" s="1">
         <v>128896</v>
       </c>
       <c r="H37" s="1">
-        <v>13910</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -21769,7 +21789,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>763200</v>
+        <v>381600</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -21781,13 +21801,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="G38" s="1">
         <v>134904</v>
       </c>
       <c r="H38" s="1">
-        <v>15270</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -21795,7 +21815,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>839300</v>
+        <v>419700</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -21807,13 +21827,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G39" s="1">
         <v>141024</v>
       </c>
       <c r="H39" s="1">
-        <v>16790</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -21821,7 +21841,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>924000</v>
+        <v>462000</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -21833,13 +21853,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="G40" s="1">
         <v>147256</v>
       </c>
       <c r="H40" s="1">
-        <v>18480</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -21847,7 +21867,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1142200</v>
+        <v>571100</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -21859,13 +21879,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="G41" s="1">
         <v>153600</v>
       </c>
       <c r="H41" s="1">
-        <v>22850</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -21873,7 +21893,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1263700</v>
+        <v>631900</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -21885,13 +21905,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G42" s="1">
         <v>160056</v>
       </c>
       <c r="H42" s="1">
-        <v>25280</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -21899,7 +21919,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1399400</v>
+        <v>699700</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -21911,13 +21931,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="G43" s="1">
         <v>166624</v>
       </c>
       <c r="H43" s="1">
-        <v>27990</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -21925,7 +21945,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1550900</v>
+        <v>775500</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -21937,13 +21957,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G44" s="1">
         <v>173304</v>
       </c>
       <c r="H44" s="1">
-        <v>31020</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -21951,7 +21971,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1720200</v>
+        <v>860100</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -21963,13 +21983,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="G45" s="1">
         <v>180096</v>
       </c>
       <c r="H45" s="1">
-        <v>34410</v>
+        <v>17210</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1">
@@ -21977,7 +21997,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1909000</v>
+        <v>954500</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -21989,13 +22009,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="G46" s="1">
         <v>187000</v>
       </c>
       <c r="H46" s="1">
-        <v>38180</v>
+        <v>19090</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
@@ -22003,7 +22023,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>2120000</v>
+        <v>1060000</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -22015,13 +22035,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="G47" s="1">
         <v>194016</v>
       </c>
       <c r="H47" s="1">
-        <v>42400</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1">
@@ -22029,7 +22049,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2355000</v>
+        <v>1177500</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -22041,13 +22061,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="G48" s="1">
         <v>201144</v>
       </c>
       <c r="H48" s="1">
-        <v>47100</v>
+        <v>23550</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1">
@@ -22055,7 +22075,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>2944300</v>
+        <v>1472200</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -22067,13 +22087,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G49" s="1">
         <v>208384</v>
       </c>
       <c r="H49" s="1">
-        <v>58890</v>
+        <v>29450</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1">
@@ -22081,7 +22101,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>3278700</v>
+        <v>1639400</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -22093,13 +22113,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="G50" s="1">
         <v>215736</v>
       </c>
       <c r="H50" s="1">
-        <v>65580</v>
+        <v>32790</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1">
@@ -22107,7 +22127,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>3651300</v>
+        <v>1825700</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -22119,13 +22139,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="G51" s="1">
         <v>223200</v>
       </c>
       <c r="H51" s="1">
-        <v>73030</v>
+        <v>36520</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1">
@@ -22133,7 +22153,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4066700</v>
+        <v>2033400</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -22145,13 +22165,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G52" s="1">
         <v>230776</v>
       </c>
       <c r="H52" s="1">
-        <v>81340</v>
+        <v>40670</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
@@ -22159,7 +22179,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4531000</v>
+        <v>2265500</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -22171,13 +22191,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="G53" s="1">
         <v>238464</v>
       </c>
       <c r="H53" s="1">
-        <v>90620</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1">
@@ -22185,7 +22205,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>5048500</v>
+        <v>2524300</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -22197,13 +22217,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="G54" s="1">
         <v>246264</v>
       </c>
       <c r="H54" s="1">
-        <v>100970</v>
+        <v>50490</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1">
@@ -22211,7 +22231,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>5625800</v>
+        <v>2812900</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -22223,13 +22243,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="G55" s="1">
         <v>254176</v>
       </c>
       <c r="H55" s="1">
-        <v>112520</v>
+        <v>56260</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1">
@@ -22237,7 +22257,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>6269800</v>
+        <v>3134900</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -22249,13 +22269,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="G56" s="1">
         <v>262200</v>
       </c>
       <c r="H56" s="1">
-        <v>125400</v>
+        <v>62700</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1">
@@ -22263,7 +22283,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>6987400</v>
+        <v>3493700</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -22275,13 +22295,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G57" s="1">
         <v>270336</v>
       </c>
       <c r="H57" s="1">
-        <v>139750</v>
+        <v>69880</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1">
@@ -22289,7 +22309,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>7785500</v>
+        <v>3892800</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -22301,13 +22321,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="G58" s="1">
         <v>278584</v>
       </c>
       <c r="H58" s="1">
-        <v>155710</v>
+        <v>77860</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1">
@@ -22315,7 +22335,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>8677900</v>
+        <v>4339000</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -22327,13 +22347,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="G59" s="1">
         <v>286944</v>
       </c>
       <c r="H59" s="1">
-        <v>173560</v>
+        <v>86780</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1">
@@ -22341,7 +22361,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>9669200</v>
+        <v>4834600</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -22353,13 +22373,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="G60" s="1">
         <v>295416</v>
       </c>
       <c r="H60" s="1">
-        <v>193390</v>
+        <v>96700</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1">
@@ -22367,7 +22387,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>10773200</v>
+        <v>5386600</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -22379,13 +22399,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="G61" s="1">
         <v>304000</v>
       </c>
       <c r="H61" s="1">
-        <v>215470</v>
+        <v>107740</v>
       </c>
     </row>
   </sheetData>
@@ -24016,7 +24036,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+      <selection activeCell="G2" sqref="G2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -25627,7 +25647,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H63"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -25666,10 +25686,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6200</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
+        <v>3100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -25683,8 +25703,8 @@
       <c r="G2" s="4">
         <v>300</v>
       </c>
-      <c r="H2" s="1">
-        <v>130</v>
+      <c r="H2" s="4">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -25692,10 +25712,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>12200</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4</v>
+        <v>6100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -25709,8 +25729,8 @@
       <c r="G3" s="4">
         <v>900</v>
       </c>
-      <c r="H3" s="1">
-        <v>250</v>
+      <c r="H3" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -25718,10 +25738,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>18200</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8</v>
+        <v>9100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -25735,8 +25755,8 @@
       <c r="G4" s="4">
         <v>1200</v>
       </c>
-      <c r="H4" s="1">
-        <v>370</v>
+      <c r="H4" s="4">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -25744,10 +25764,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>24200</v>
-      </c>
-      <c r="C5" s="4">
-        <v>12</v>
+        <v>12100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -25761,8 +25781,8 @@
       <c r="G5" s="4">
         <v>1800</v>
       </c>
-      <c r="H5" s="1">
-        <v>490</v>
+      <c r="H5" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -25770,10 +25790,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>30400</v>
-      </c>
-      <c r="C6" s="4">
-        <v>16</v>
+        <v>15200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -25787,8 +25807,8 @@
       <c r="G6" s="4">
         <v>2400</v>
       </c>
-      <c r="H6" s="1">
-        <v>610</v>
+      <c r="H6" s="4">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -25796,10 +25816,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>36400</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
+        <v>18200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -25813,8 +25833,8 @@
       <c r="G7" s="4">
         <v>3000</v>
       </c>
-      <c r="H7" s="1">
-        <v>730</v>
+      <c r="H7" s="4">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -25822,10 +25842,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>42600</v>
-      </c>
-      <c r="C8" s="4">
-        <v>24</v>
+        <v>21300</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -25839,8 +25859,8 @@
       <c r="G8" s="4">
         <v>3600</v>
       </c>
-      <c r="H8" s="1">
-        <v>860</v>
+      <c r="H8" s="4">
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -25848,10 +25868,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>49000</v>
-      </c>
-      <c r="C9" s="4">
-        <v>28</v>
+        <v>24500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -25865,8 +25885,8 @@
       <c r="G9" s="4">
         <v>6400</v>
       </c>
-      <c r="H9" s="1">
-        <v>980</v>
+      <c r="H9" s="4">
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -25874,10 +25894,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>55600</v>
-      </c>
-      <c r="C10" s="4">
-        <v>32</v>
+        <v>27800</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -25891,8 +25911,8 @@
       <c r="G10" s="4">
         <v>9200</v>
       </c>
-      <c r="H10" s="1">
-        <v>1120</v>
+      <c r="H10" s="4">
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -25900,10 +25920,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>62200</v>
-      </c>
-      <c r="C11" s="4">
-        <v>36</v>
+        <v>31100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -25917,8 +25937,8 @@
       <c r="G11" s="4">
         <v>12000</v>
       </c>
-      <c r="H11" s="1">
-        <v>1250</v>
+      <c r="H11" s="4">
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -25926,10 +25946,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>69000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>40</v>
+        <v>34500</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -25943,8 +25963,8 @@
       <c r="G12" s="4">
         <v>15096</v>
       </c>
-      <c r="H12" s="1">
-        <v>1380</v>
+      <c r="H12" s="4">
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -25952,10 +25972,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>76000</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44</v>
+        <v>38000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -25969,8 +25989,8 @@
       <c r="G13" s="4">
         <v>18304</v>
       </c>
-      <c r="H13" s="1">
-        <v>1520</v>
+      <c r="H13" s="4">
+        <v>760</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -25978,10 +25998,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>83000</v>
-      </c>
-      <c r="C14" s="4">
-        <v>48</v>
+        <v>41500</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -25995,8 +26015,8 @@
       <c r="G14" s="1">
         <v>21624</v>
       </c>
-      <c r="H14" s="1">
-        <v>1660</v>
+      <c r="H14" s="4">
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -26004,10 +26024,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>90200</v>
-      </c>
-      <c r="C15" s="4">
-        <v>52</v>
+        <v>45100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -26021,8 +26041,8 @@
       <c r="G15" s="1">
         <v>25056</v>
       </c>
-      <c r="H15" s="1">
-        <v>1810</v>
+      <c r="H15" s="4">
+        <v>910</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -26030,10 +26050,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>97800</v>
+        <v>48900</v>
       </c>
       <c r="C16" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -26048,7 +26068,7 @@
         <v>28600</v>
       </c>
       <c r="H16" s="1">
-        <v>1960</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -26056,10 +26076,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>108600</v>
+        <v>54300</v>
       </c>
       <c r="C17" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -26074,7 +26094,7 @@
         <v>32256</v>
       </c>
       <c r="H17" s="1">
-        <v>2180</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -26082,10 +26102,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>117200</v>
+        <v>58600</v>
       </c>
       <c r="C18" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -26100,7 +26120,7 @@
         <v>36024</v>
       </c>
       <c r="H18" s="1">
-        <v>2350</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -26108,10 +26128,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>126200</v>
+        <v>63100</v>
       </c>
       <c r="C19" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -26126,7 +26146,7 @@
         <v>39904</v>
       </c>
       <c r="H19" s="1">
-        <v>2530</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -26134,10 +26154,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>135800</v>
+        <v>67900</v>
       </c>
       <c r="C20" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -26152,7 +26172,7 @@
         <v>43896</v>
       </c>
       <c r="H20" s="1">
-        <v>2720</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -26160,10 +26180,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>145800</v>
+        <v>72900</v>
       </c>
       <c r="C21" s="1">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -26178,7 +26198,7 @@
         <v>48000</v>
       </c>
       <c r="H21" s="1">
-        <v>2920</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -26186,10 +26206,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>156400</v>
+        <v>78200</v>
       </c>
       <c r="C22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -26204,7 +26224,7 @@
         <v>52216</v>
       </c>
       <c r="H22" s="1">
-        <v>3130</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -26212,10 +26232,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>167800</v>
+        <v>83900</v>
       </c>
       <c r="C23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -26230,7 +26250,7 @@
         <v>56544</v>
       </c>
       <c r="H23" s="1">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -26238,10 +26258,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -26256,7 +26276,7 @@
         <v>60984</v>
       </c>
       <c r="H24" s="1">
-        <v>3600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -26264,10 +26284,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>205200</v>
+        <v>102600</v>
       </c>
       <c r="C25" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -26282,7 +26302,7 @@
         <v>65536</v>
       </c>
       <c r="H25" s="1">
-        <v>4110</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -26290,10 +26310,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>221000</v>
+        <v>110500</v>
       </c>
       <c r="C26" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -26308,7 +26328,7 @@
         <v>70200</v>
       </c>
       <c r="H26" s="1">
-        <v>4420</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -26316,10 +26336,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>238400</v>
+        <v>119200</v>
       </c>
       <c r="C27" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -26334,7 +26354,7 @@
         <v>74976</v>
       </c>
       <c r="H27" s="1">
-        <v>4770</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -26342,10 +26362,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>257400</v>
+        <v>128700</v>
       </c>
       <c r="C28" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -26360,7 +26380,7 @@
         <v>79864</v>
       </c>
       <c r="H28" s="1">
-        <v>5150</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -26368,10 +26388,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>278200</v>
+        <v>139100</v>
       </c>
       <c r="C29" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -26386,7 +26406,7 @@
         <v>84864</v>
       </c>
       <c r="H29" s="1">
-        <v>5570</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -26394,10 +26414,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="C30" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -26412,7 +26432,7 @@
         <v>89976</v>
       </c>
       <c r="H30" s="1">
-        <v>6020</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -26420,10 +26440,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>325800</v>
+        <v>162900</v>
       </c>
       <c r="C31" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -26438,7 +26458,7 @@
         <v>95200</v>
       </c>
       <c r="H31" s="1">
-        <v>6520</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -26446,10 +26466,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>353200</v>
+        <v>176600</v>
       </c>
       <c r="C32" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -26464,7 +26484,7 @@
         <v>100536</v>
       </c>
       <c r="H32" s="1">
-        <v>7070</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -26472,10 +26492,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>421400</v>
+        <v>210700</v>
       </c>
       <c r="C33" s="1">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -26490,7 +26510,7 @@
         <v>105984</v>
       </c>
       <c r="H33" s="1">
-        <v>8430</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -26498,10 +26518,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>460400</v>
+        <v>230200</v>
       </c>
       <c r="C34" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -26516,7 +26536,7 @@
         <v>111544</v>
       </c>
       <c r="H34" s="1">
-        <v>9210</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -26524,10 +26544,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>503400</v>
+        <v>251700</v>
       </c>
       <c r="C35" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -26542,7 +26562,7 @@
         <v>117216</v>
       </c>
       <c r="H35" s="1">
-        <v>10070</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -26550,10 +26570,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>551200</v>
+        <v>275600</v>
       </c>
       <c r="C36" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -26568,7 +26588,7 @@
         <v>123000</v>
       </c>
       <c r="H36" s="1">
-        <v>11030</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -26576,10 +26596,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>604600</v>
+        <v>302300</v>
       </c>
       <c r="C37" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -26594,7 +26614,7 @@
         <v>128896</v>
       </c>
       <c r="H37" s="1">
-        <v>12100</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -26602,10 +26622,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>663600</v>
+        <v>331800</v>
       </c>
       <c r="C38" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -26620,7 +26640,7 @@
         <v>134904</v>
       </c>
       <c r="H38" s="1">
-        <v>13280</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -26628,10 +26648,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>729800</v>
+        <v>364900</v>
       </c>
       <c r="C39" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -26646,7 +26666,7 @@
         <v>141024</v>
       </c>
       <c r="H39" s="1">
-        <v>14600</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -26654,10 +26674,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>803400</v>
+        <v>401700</v>
       </c>
       <c r="C40" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -26672,7 +26692,7 @@
         <v>147256</v>
       </c>
       <c r="H40" s="1">
-        <v>16070</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -26680,10 +26700,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>993200</v>
+        <v>496600</v>
       </c>
       <c r="C41" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -26698,7 +26718,7 @@
         <v>153600</v>
       </c>
       <c r="H41" s="1">
-        <v>19870</v>
+        <v>9940</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -26706,10 +26726,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1098800</v>
+        <v>549400</v>
       </c>
       <c r="C42" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -26724,7 +26744,7 @@
         <v>160056</v>
       </c>
       <c r="H42" s="1">
-        <v>21980</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -26732,10 +26752,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1216800</v>
+        <v>608400</v>
       </c>
       <c r="C43" s="1">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -26750,7 +26770,7 @@
         <v>166624</v>
       </c>
       <c r="H43" s="1">
-        <v>24340</v>
+        <v>12170</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -26758,10 +26778,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1348600</v>
+        <v>674300</v>
       </c>
       <c r="C44" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -26776,7 +26796,7 @@
         <v>173304</v>
       </c>
       <c r="H44" s="1">
-        <v>26980</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -26784,10 +26804,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1495800</v>
+        <v>747900</v>
       </c>
       <c r="C45" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -26802,7 +26822,7 @@
         <v>180096</v>
       </c>
       <c r="H45" s="1">
-        <v>29920</v>
+        <v>14960</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1">
@@ -26810,10 +26830,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="C46" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -26828,7 +26848,7 @@
         <v>187000</v>
       </c>
       <c r="H46" s="1">
-        <v>33200</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
@@ -26836,10 +26856,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1843400</v>
+        <v>921700</v>
       </c>
       <c r="C47" s="1">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -26854,7 +26874,7 @@
         <v>194016</v>
       </c>
       <c r="H47" s="1">
-        <v>36870</v>
+        <v>18440</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1">
@@ -26862,10 +26882,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2047800</v>
+        <v>1023900</v>
       </c>
       <c r="C48" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -26880,7 +26900,7 @@
         <v>201144</v>
       </c>
       <c r="H48" s="1">
-        <v>40960</v>
+        <v>20480</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1">
@@ -26888,10 +26908,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>2560200</v>
+        <v>1280100</v>
       </c>
       <c r="C49" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -26906,7 +26926,7 @@
         <v>208384</v>
       </c>
       <c r="H49" s="1">
-        <v>51210</v>
+        <v>25610</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1">
@@ -26914,10 +26934,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>2851000</v>
+        <v>1425500</v>
       </c>
       <c r="C50" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -26932,7 +26952,7 @@
         <v>215736</v>
       </c>
       <c r="H50" s="1">
-        <v>57020</v>
+        <v>28510</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1">
@@ -26940,10 +26960,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>3175000</v>
+        <v>1587500</v>
       </c>
       <c r="C51" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -26958,7 +26978,7 @@
         <v>223200</v>
       </c>
       <c r="H51" s="1">
-        <v>63500</v>
+        <v>31750</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1">
@@ -26966,10 +26986,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>3536200</v>
+        <v>1768100</v>
       </c>
       <c r="C52" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -26984,7 +27004,7 @@
         <v>230776</v>
       </c>
       <c r="H52" s="1">
-        <v>70730</v>
+        <v>35370</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
@@ -26992,10 +27012,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>3940000</v>
+        <v>1970000</v>
       </c>
       <c r="C53" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -27010,7 +27030,7 @@
         <v>238464</v>
       </c>
       <c r="H53" s="1">
-        <v>78800</v>
+        <v>39400</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1">
@@ -27018,10 +27038,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4390000</v>
+        <v>2195000</v>
       </c>
       <c r="C54" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -27036,7 +27056,7 @@
         <v>246264</v>
       </c>
       <c r="H54" s="1">
-        <v>87800</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1">
@@ -27044,10 +27064,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4892000</v>
+        <v>2446000</v>
       </c>
       <c r="C55" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -27062,7 +27082,7 @@
         <v>254176</v>
       </c>
       <c r="H55" s="1">
-        <v>97840</v>
+        <v>48920</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1">
@@ -27070,10 +27090,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>5452000</v>
+        <v>2726000</v>
       </c>
       <c r="C56" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -27088,7 +27108,7 @@
         <v>262200</v>
       </c>
       <c r="H56" s="1">
-        <v>109040</v>
+        <v>54520</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1">
@@ -27096,10 +27116,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>6076000</v>
+        <v>3038000</v>
       </c>
       <c r="C57" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -27114,7 +27134,7 @@
         <v>270336</v>
       </c>
       <c r="H57" s="1">
-        <v>121520</v>
+        <v>60760</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1">
@@ -27122,10 +27142,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>6770000</v>
+        <v>3385000</v>
       </c>
       <c r="C58" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -27140,7 +27160,7 @@
         <v>278584</v>
       </c>
       <c r="H58" s="1">
-        <v>135400</v>
+        <v>67700</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1">
@@ -27148,10 +27168,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>7546000</v>
+        <v>3773000</v>
       </c>
       <c r="C59" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -27166,7 +27186,7 @@
         <v>286944</v>
       </c>
       <c r="H59" s="1">
-        <v>150920</v>
+        <v>75460</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1">
@@ -27174,10 +27194,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>8408000</v>
+        <v>4204000</v>
       </c>
       <c r="C60" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -27192,7 +27212,7 @@
         <v>295416</v>
       </c>
       <c r="H60" s="1">
-        <v>168160</v>
+        <v>84080</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1">
@@ -27200,10 +27220,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>9368000</v>
+        <v>4684000</v>
       </c>
       <c r="C61" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -27218,7 +27238,7 @@
         <v>304000</v>
       </c>
       <c r="H61" s="1">
-        <v>187360</v>
+        <v>93680</v>
       </c>
     </row>
   </sheetData>
@@ -27238,7 +27258,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -30460,7 +30480,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -32071,7 +32091,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
